--- a/public/dataTable.xlsx
+++ b/public/dataTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SATECHI/Programowanie/MyIdeas/estimation_center/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SATECHI/Programowanie/MyIdeas/estimation_center/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC75BBBD-2810-4248-B5EE-4D9B3C541C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F09C81-C610-F04B-9502-C77D7F5385F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55740" yWindow="8060" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Nazwa</t>
   </si>
@@ -110,9 +110,6 @@
     <t>liczba kondygnacji</t>
   </si>
   <si>
-    <t>liczba miejsc parkingowych</t>
-  </si>
-  <si>
     <t>liczba parkliftow</t>
   </si>
   <si>
@@ -192,6 +189,27 @@
   </si>
   <si>
     <t>Zielona</t>
+  </si>
+  <si>
+    <t>zabudowa nadziemia poza obrysem podziemia</t>
+  </si>
+  <si>
+    <t>liczba miejsc parkingowych w garażu</t>
+  </si>
+  <si>
+    <t>zabezpieczenie wykopu</t>
+  </si>
+  <si>
+    <t>ściany szczelinowe</t>
+  </si>
+  <si>
+    <t>roboty palowe</t>
+  </si>
+  <si>
+    <t>prace fundamentowe</t>
+  </si>
+  <si>
+    <t>parklifty</t>
   </si>
 </sst>
 </file>
@@ -581,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA469301-F209-9D44-A8FF-0D359AB0CA09}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -658,7 +676,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -666,7 +684,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -674,7 +692,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -682,7 +700,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -690,7 +708,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -698,7 +716,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -706,7 +724,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -714,7 +732,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -722,7 +740,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -730,7 +748,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -738,7 +756,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -746,7 +764,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -754,7 +772,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -762,7 +780,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>17</v>
@@ -770,7 +788,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -778,7 +796,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>19</v>
@@ -786,7 +804,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -794,7 +812,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>21</v>
@@ -802,170 +820,218 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
         <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/dataTable.xlsx
+++ b/public/dataTable.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SATECHI/Programowanie/MyIdeas/estimation_center/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotawski\Coding\estimationCenter\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F09C81-C610-F04B-9502-C77D7F5385F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC03BCC5-2517-4276-9F39-CF95F45CA4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="2" r:id="rId1"/>
     <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Nazwa</t>
   </si>
@@ -68,12 +71,6 @@
     <t>powierzchnia działki</t>
   </si>
   <si>
-    <t>powierzchnia nadziemia</t>
-  </si>
-  <si>
-    <t>powierzchnia podziemia</t>
-  </si>
-  <si>
     <t>powierzchnia niezabudowana dzialki</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>offset poza dzialka</t>
   </si>
   <si>
-    <t>Zielona</t>
-  </si>
-  <si>
     <t>zabudowa nadziemia poza obrysem podziemia</t>
   </si>
   <si>
@@ -210,13 +204,34 @@
   </si>
   <si>
     <t>parklifty</t>
+  </si>
+  <si>
+    <t>Romanowicza</t>
+  </si>
+  <si>
+    <t>Kraków</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>powierzchnia zabudowy nadziemia</t>
+  </si>
+  <si>
+    <t>powierzchnia zabudowy podziemia</t>
+  </si>
+  <si>
+    <t>zieleń</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +249,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,12 +274,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -264,8 +303,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Dziesiętny" xfId="2" builtinId="3"/>
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -280,6 +328,530 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Dmowskiego - Etap 2 Szczegóły"/>
+      <sheetName val="Dmowskiego - Etap 1 Szczegóły"/>
+      <sheetName val="Bardzka - wycinki"/>
+      <sheetName val="Bardzka - ektryczna"/>
+      <sheetName val="Bardzka - PORR GW"/>
+      <sheetName val="Bardzka  - CONTRACT SIGNED"/>
+      <sheetName val="Pohoskiego - kody I"/>
+      <sheetName val="Pohoskiego - contract signed"/>
+      <sheetName val="Pohoskiego - zabezpieczenie wyk"/>
+      <sheetName val="Pohoskiego SS"/>
+      <sheetName val="Pohoskiego - windy"/>
+      <sheetName val="Pohoskiego - przylacza2"/>
+      <sheetName val="Pohoskiego - przylacza"/>
+      <sheetName val="Pohoskiego okna"/>
+      <sheetName val="Pohoskiego - drzwi"/>
+      <sheetName val="Pohoskiego - portale"/>
+      <sheetName val="Pohoskiego okna - an1"/>
+      <sheetName val="Pohoskiego - elektryka"/>
+      <sheetName val="Pohoskiego - instalacje sanitar"/>
+      <sheetName val="Pohoskiego - i sanitarne 2"/>
+      <sheetName val="Pohoskiego - elektryka an1"/>
+      <sheetName val="Pohoskiego - wezel"/>
+      <sheetName val="Pohoskiego - pzt"/>
+      <sheetName val="Pohoskiego roboty wykończeniowe"/>
+      <sheetName val="Romanowicza zabezpieczenie"/>
+      <sheetName val="Romanowicza - Express SS"/>
+      <sheetName val="Romanowicza - windy"/>
+      <sheetName val="Romanowicza - Express an1"/>
+      <sheetName val="Romanowicza - domofony"/>
+      <sheetName val="Romanowicza - MGBuilding"/>
+      <sheetName val="Romanowicza - MGBuilding2"/>
+      <sheetName val="Romanowicza - wykopy"/>
+      <sheetName val="Romanowicza Express an 3"/>
+      <sheetName val="Dmowskiego - Etap 1 Kody I"/>
+      <sheetName val="Dmowskiego - Etap 2 Kody I"/>
+      <sheetName val="Jana Pawła- KODY I "/>
+      <sheetName val="Jana Pawła - windy"/>
+      <sheetName val="Stocznia - SS"/>
+      <sheetName val="Stocznia - ściany szczelin A2"/>
+      <sheetName val="Stocznia - windy"/>
+      <sheetName val="Stocznia - GW"/>
+      <sheetName val="Stocznia badania archeologiczne"/>
+      <sheetName val="Stocznia - roboty ziemne"/>
+      <sheetName val="Stocznia - domofony"/>
+      <sheetName val="Stocznia - ściany szczeli A1"/>
+      <sheetName val="Stocznia - windy a1"/>
+      <sheetName val="Stocznia - przylacza"/>
+      <sheetName val="Stocznia Remediacja A1"/>
+      <sheetName val="Stocznia Remediacja"/>
+      <sheetName val="Stocznia - ogrodzenie"/>
+      <sheetName val="Stocznia - contract signed"/>
+      <sheetName val="Romanowicza - contract signed"/>
+      <sheetName val="Stocznia - Keller"/>
+      <sheetName val="Brnenska - zasilanie placu budo"/>
+      <sheetName val="Brnenska - zabezpieczenia wykop"/>
+      <sheetName val="Brnenska adm an3"/>
+      <sheetName val="Brnenska adm an2"/>
+      <sheetName val="Brnenska adm an1"/>
+      <sheetName val="Brnenska adm"/>
+      <sheetName val="Brnenska kobi an1"/>
+      <sheetName val="Brnenska kobi"/>
+      <sheetName val="Brnenska wer dom an 2"/>
+      <sheetName val="Brnenska wer dom an 1"/>
+      <sheetName val="Brnenska wer dom"/>
+      <sheetName val="Brnenska szajowski an1"/>
+      <sheetName val="Brnenska szajowski"/>
+      <sheetName val="Brnenska SS"/>
+      <sheetName val="Brneńska przyłącza 4"/>
+      <sheetName val="Brneńska przyłącza"/>
+      <sheetName val="Brneńska przyłącza2"/>
+      <sheetName val="Brnenska - windy"/>
+      <sheetName val="Brneńska okna"/>
+      <sheetName val="Brneńska - sanitarne2"/>
+      <sheetName val="Brneńska - elektryka2"/>
+      <sheetName val="Brneńska - elew"/>
+      <sheetName val="Brneńska - wyk2"/>
+      <sheetName val="Brnenska - drzwi stalowe"/>
+      <sheetName val="Brnenska - witryny2"/>
+      <sheetName val="Brnenska - zabydowy meblowe2"/>
+      <sheetName val="Brneńska - bramy"/>
+      <sheetName val="Brneńska - drzwi2"/>
+      <sheetName val="Brneńska portale 2"/>
+      <sheetName val="Brneńska - żywica"/>
+      <sheetName val="Brneńska - domofony"/>
+      <sheetName val="Brneńska - droga"/>
+      <sheetName val="Brneńska - balustrady"/>
+      <sheetName val="Brneńska - podnosnik"/>
+      <sheetName val="Brneńska - wyk 3"/>
+      <sheetName val="Brneńska - elektryka"/>
+      <sheetName val="Brneńska - sanitarne3"/>
+      <sheetName val="Brneńska - wyk"/>
+      <sheetName val="Brneńska przyłącza3"/>
+      <sheetName val="Brneńska - drogaa"/>
+      <sheetName val="Brnenska -dfa"/>
+      <sheetName val="Brnenska - witryny"/>
+      <sheetName val="Brneńska portale"/>
+      <sheetName val="Brneńska - drzwi"/>
+      <sheetName val="Brnenska - zabydowy meblowe"/>
+      <sheetName val="Brneńska SS"/>
+      <sheetName val="Brneńska skrzynki na listy"/>
+      <sheetName val="Brneńska - master key"/>
+      <sheetName val="Brneńska - sanitarne"/>
+      <sheetName val="Brneńska siw"/>
+      <sheetName val="Brnenska - mur oporowy2"/>
+      <sheetName val="Brneńska - mur oporowy"/>
+      <sheetName val="Brneńska S0"/>
+      <sheetName val="Brnenska - geoprojekt"/>
+      <sheetName val="Jana Pawła - TES (4)"/>
+      <sheetName val="Jana Pawła - Oferta stan zero"/>
+      <sheetName val="Jana Pawła - Oferta nadziemie"/>
+      <sheetName val="R4R"/>
+      <sheetName val="EC"/>
+      <sheetName val="Jana Pawła - deweloperski (4)"/>
+      <sheetName val="Jana Pawła - Drogi i Zieleń"/>
+      <sheetName val="Jana Pawła - Instalacje san"/>
+      <sheetName val="Jana Pawła - Inst.elektr."/>
+      <sheetName val="Zielony Politechnika Kody I"/>
+      <sheetName val="Zielony Zatoka Kody I"/>
+      <sheetName val="Zielony Trojkąt - rozbiorki"/>
+      <sheetName val="Zielony Trojkąt - windy2"/>
+      <sheetName val="Zielony Trojkąt - SS"/>
+      <sheetName val="Zielony Trojkąt - SS3"/>
+      <sheetName val="Zielony Trojkąt - SS2"/>
+      <sheetName val="Zielony Trojkąt - windy"/>
+      <sheetName val="Zielony Trojkąt - okna"/>
+      <sheetName val="Zielony Trojkąt - zasilanie pla"/>
+      <sheetName val="Zielony Trojkąt - przyl dla bud"/>
+      <sheetName val="Zielony Trojkąt - remediacja"/>
+      <sheetName val="Zielony Trojkąt - mury dzialowe"/>
+      <sheetName val="Zielony Trojkąt - mury"/>
+      <sheetName val="Zielony Trojkąt - sanitarne"/>
+      <sheetName val="Zielony Trojkat - budget"/>
+      <sheetName val="Curtis - Kody I"/>
+      <sheetName val="Opaczewska - Kody I"/>
+      <sheetName val="Brnenska - contract signed"/>
+      <sheetName val="Wykończenie budowlane"/>
+      <sheetName val="Stan surowy"/>
+      <sheetName val="Opaczewska - keller"/>
+      <sheetName val="Bardzka - Kody I"/>
+      <sheetName val="udział SS do N03 - umowy"/>
+      <sheetName val="udział SS do N03 - wyceny"/>
+      <sheetName val="Park zachod budget in progress"/>
+      <sheetName val="Jaworska budget in progress"/>
+      <sheetName val="Kilińskiego budget in progress"/>
+      <sheetName val="Park Zachodni - umowy"/>
+      <sheetName val="Kilińskiego - umowy"/>
+      <sheetName val="Jaworska 2 - umowy"/>
+      <sheetName val="Windy zakupy centralne"/>
+      <sheetName val="Zielony T - Budmar"/>
+      <sheetName val="Stocznia - Promonte"/>
+      <sheetName val="Jana Pawła - Expres"/>
+      <sheetName val="Pohoskiego PRIŻ"/>
+      <sheetName val="Pohoskiego CONSTEEL"/>
+      <sheetName val="Brneńska ERBUD"/>
+      <sheetName val="Brneńska WIPEN"/>
+      <sheetName val="Brneńska GGTS"/>
+      <sheetName val="Romanowicza Aarsleff"/>
+      <sheetName val="Romanowicza Expres"/>
+      <sheetName val="Porównanie - WYCENY"/>
+      <sheetName val="Zielony T Politechnika Kody I"/>
+      <sheetName val="Zielony T Zatoka Kody I"/>
+      <sheetName val="Dmowskiego Etap 2 Kody I"/>
+      <sheetName val="Dmowskiego Etap 1 Kody I"/>
+      <sheetName val="Dmowskiego E1 + E2 Wycena szac"/>
+      <sheetName val="Jana Pawła - KODY I"/>
+      <sheetName val="Jana Pawła - Szczegóły"/>
+      <sheetName val="Pohoskiego - Szczegóły"/>
+      <sheetName val="Brneńska - Kody I"/>
+      <sheetName val="Brneńska - Szczegóły"/>
+      <sheetName val="Stocznia - Kody I"/>
+      <sheetName val="Romanowicza - Szczegóły"/>
+      <sheetName val="Romanowicza - Kody I"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+      <sheetData sheetId="85"/>
+      <sheetData sheetId="86"/>
+      <sheetData sheetId="87"/>
+      <sheetData sheetId="88"/>
+      <sheetData sheetId="89"/>
+      <sheetData sheetId="90"/>
+      <sheetData sheetId="91"/>
+      <sheetData sheetId="92"/>
+      <sheetData sheetId="93"/>
+      <sheetData sheetId="94"/>
+      <sheetData sheetId="95"/>
+      <sheetData sheetId="96"/>
+      <sheetData sheetId="97"/>
+      <sheetData sheetId="98"/>
+      <sheetData sheetId="99"/>
+      <sheetData sheetId="100"/>
+      <sheetData sheetId="101"/>
+      <sheetData sheetId="102"/>
+      <sheetData sheetId="103"/>
+      <sheetData sheetId="104"/>
+      <sheetData sheetId="105"/>
+      <sheetData sheetId="106"/>
+      <sheetData sheetId="107"/>
+      <sheetData sheetId="108"/>
+      <sheetData sheetId="109"/>
+      <sheetData sheetId="110">
+        <row r="4">
+          <cell r="E4">
+            <v>13189</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>5849</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>9883</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>9380.0700000000015</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>36380.17</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>27839</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>1692</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>29531</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>324</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>873</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>1100000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>167716386.99774998</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>1915808.6847999992</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>4414079</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>8475964.5531971008</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>8992347.2480222024</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>32274693.513980698</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>21488112.304190762</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>6543614.858957001</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>3846666.5490708007</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>26541918.295966305</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>1485160</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>17174560.004198376</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>7153414.9939294979</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>10494992.387217235</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>8154123.2635999983</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>1560231.9930200002</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>233553</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>990810</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62">
+            <v>1921850.3476</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63">
+            <v>308215</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65">
+            <v>3746271</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="111"/>
+      <sheetData sheetId="112"/>
+      <sheetData sheetId="113"/>
+      <sheetData sheetId="114"/>
+      <sheetData sheetId="115"/>
+      <sheetData sheetId="116"/>
+      <sheetData sheetId="117"/>
+      <sheetData sheetId="118"/>
+      <sheetData sheetId="119"/>
+      <sheetData sheetId="120"/>
+      <sheetData sheetId="121"/>
+      <sheetData sheetId="122"/>
+      <sheetData sheetId="123"/>
+      <sheetData sheetId="124"/>
+      <sheetData sheetId="125"/>
+      <sheetData sheetId="126"/>
+      <sheetData sheetId="127"/>
+      <sheetData sheetId="128"/>
+      <sheetData sheetId="129"/>
+      <sheetData sheetId="130"/>
+      <sheetData sheetId="131"/>
+      <sheetData sheetId="132"/>
+      <sheetData sheetId="133"/>
+      <sheetData sheetId="134"/>
+      <sheetData sheetId="135"/>
+      <sheetData sheetId="136"/>
+      <sheetData sheetId="137"/>
+      <sheetData sheetId="138"/>
+      <sheetData sheetId="139"/>
+      <sheetData sheetId="140"/>
+      <sheetData sheetId="141"/>
+      <sheetData sheetId="142"/>
+      <sheetData sheetId="143"/>
+      <sheetData sheetId="144"/>
+      <sheetData sheetId="145"/>
+      <sheetData sheetId="146"/>
+      <sheetData sheetId="147"/>
+      <sheetData sheetId="148"/>
+      <sheetData sheetId="149"/>
+      <sheetData sheetId="150"/>
+      <sheetData sheetId="151"/>
+      <sheetData sheetId="152"/>
+      <sheetData sheetId="153"/>
+      <sheetData sheetId="154"/>
+      <sheetData sheetId="155"/>
+      <sheetData sheetId="156"/>
+      <sheetData sheetId="157"/>
+      <sheetData sheetId="158"/>
+      <sheetData sheetId="159"/>
+      <sheetData sheetId="160"/>
+      <sheetData sheetId="161"/>
+      <sheetData sheetId="162"/>
+      <sheetData sheetId="163"/>
+      <sheetData sheetId="164"/>
+      <sheetData sheetId="165"/>
+      <sheetData sheetId="166"/>
+      <sheetData sheetId="167"/>
+      <sheetData sheetId="168"/>
+      <sheetData sheetId="169"/>
+      <sheetData sheetId="170"/>
+      <sheetData sheetId="171"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,444 +1171,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA469301-F209-9D44-A8FF-0D359AB0CA09}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <f>[1]R4R!E37/[1]R4R!E13</f>
+        <v>5679.3331413683918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <f>[1]R4R!E4</f>
+        <v>13189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6">
+        <f>[1]R4R!E5</f>
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6">
+        <f>[1]R4R!E6</f>
+        <v>9883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <f>B6-B7</f>
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>29249.055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <f>B14+B15</f>
+        <v>45760.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <f>[1]R4R!E9</f>
+        <v>9380.0700000000015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <f>[1]R4R!E10</f>
+        <v>36380.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B17+B18</f>
+        <v>29531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <f>[1]R4R!E11</f>
+        <v>27839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <f>[1]R4R!E12</f>
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B15-B17-B18</f>
+        <v>6849.1699999999983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6">
+        <f>[1]R4R!E15</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <f>[1]R4R!E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <f>[1]R4R!E17</f>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <f>B17/B24</f>
+        <v>31.888888888888889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <f>B19/B15</f>
+        <v>0.18826657489505955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <f>B14/B16</f>
+        <v>0.31763468897091196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <f>[1]R4R!E26</f>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <f>[1]R4R!E37</f>
+        <v>167716386.99774998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <f>[1]R4R!E39</f>
+        <v>1915808.6847999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="304" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B31" s="6">
+        <f>[1]R4R!E40</f>
+        <v>4414079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B32" s="6">
+        <f>[1]R4R!E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B33" s="6">
+        <f>[1]R4R!E43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="6">
+        <f>[1]R4R!E44</f>
+        <v>8475964.5531971008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B35" s="6">
+        <f>[1]R4R!E45</f>
+        <v>8992347.2480222024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B36" s="6">
+        <f>[1]R4R!E46</f>
+        <v>32274693.513980698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="6">
+        <f>[1]R4R!E47</f>
+        <v>21488112.304190762</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="6">
+        <f>[1]R4R!E48</f>
+        <v>6543614.858957001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6">
+        <f>[1]R4R!E49</f>
+        <v>3846666.5490708007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <f>[1]R4R!E50</f>
+        <v>26541918.295966305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="6">
+        <f>[1]R4R!E52</f>
+        <v>1485160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B43" s="6">
+        <f>[1]R4R!E54</f>
+        <v>17174560.004198376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B41">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B44" s="6">
+        <f>[1]R4R!E55</f>
+        <v>7153414.9939294979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B43">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B45" s="6">
+        <f>[1]R4R!E56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B46" s="6">
+        <f>[1]R4R!E57</f>
+        <v>10494992.387217235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B47" s="6">
+        <f>[1]R4R!E58</f>
+        <v>8154123.2635999983</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B46">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B48" s="6">
+        <f>[1]R4R!E59</f>
+        <v>1560231.9930200002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B49" s="6">
+        <f>[1]R4R!E60</f>
+        <v>233553</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="6">
+        <f>[1]R4R!E61</f>
+        <v>990810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B48">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B51" s="6">
+        <f>[1]R4R!E62</f>
+        <v>1921850.3476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B49">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B52" s="6">
+        <f>[1]R4R!E63</f>
+        <v>308215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B50">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B53" s="6">
+        <f>[1]R4R!E64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B51">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53">
-        <v>26</v>
+      <c r="B54" s="6">
+        <f>[1]R4R!E65</f>
+        <v>3746271</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{2F99D9AA-CE6D-E44E-A465-8CF696DB70DC}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{899AD2C1-9A2D-48EE-90D5-D40BF0FD5974}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1050,9 +1674,9 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>

--- a/public/dataTable.xlsx
+++ b/public/dataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotawski\Coding\estimationCenter\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC03BCC5-2517-4276-9F39-CF95F45CA4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0880165A-FF22-4B4B-ADE1-39FD3058EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -206,15 +207,6 @@
     <t>parklifty</t>
   </si>
   <si>
-    <t>Romanowicza</t>
-  </si>
-  <si>
-    <t>Kraków</t>
-  </si>
-  <si>
-    <t>Finished</t>
-  </si>
-  <si>
     <t>powierzchnia zabudowy nadziemia</t>
   </si>
   <si>
@@ -222,6 +214,15 @@
   </si>
   <si>
     <t>zieleń</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Bardzka</t>
+  </si>
+  <si>
+    <t>Wrocław</t>
   </si>
 </sst>
 </file>
@@ -295,7 +296,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -311,6 +312,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dziesiętny" xfId="2" builtinId="3"/>
@@ -342,8 +344,10 @@
       <sheetName val="Bardzka - wycinki"/>
       <sheetName val="Bardzka - ektryczna"/>
       <sheetName val="Bardzka - PORR GW"/>
+      <sheetName val="Bardzka  - CONTRACT SIGNEDv2"/>
       <sheetName val="Bardzka  - CONTRACT SIGNED"/>
       <sheetName val="Pohoskiego - kody I"/>
+      <sheetName val="Pohoskiego - contract signedv2"/>
       <sheetName val="Pohoskiego - contract signed"/>
       <sheetName val="Pohoskiego - zabezpieczenie wyk"/>
       <sheetName val="Pohoskiego SS"/>
@@ -387,7 +391,9 @@
       <sheetName val="Stocznia Remediacja A1"/>
       <sheetName val="Stocznia Remediacja"/>
       <sheetName val="Stocznia - ogrodzenie"/>
+      <sheetName val="Stocznia - contract signedv2"/>
       <sheetName val="Stocznia - contract signed"/>
+      <sheetName val="Romanowicza - contract signedv2"/>
       <sheetName val="Romanowicza - contract signed"/>
       <sheetName val="Stocznia - Keller"/>
       <sheetName val="Brnenska - zasilanie placu budo"/>
@@ -447,8 +453,6 @@
       <sheetName val="Jana Pawła - TES (4)"/>
       <sheetName val="Jana Pawła - Oferta stan zero"/>
       <sheetName val="Jana Pawła - Oferta nadziemie"/>
-      <sheetName val="R4R"/>
-      <sheetName val="EC"/>
       <sheetName val="Jana Pawła - deweloperski (4)"/>
       <sheetName val="Jana Pawła - Drogi i Zieleń"/>
       <sheetName val="Jana Pawła - Instalacje san"/>
@@ -471,9 +475,19 @@
       <sheetName val="Zielony Trojkat - budget"/>
       <sheetName val="Curtis - Kody I"/>
       <sheetName val="Opaczewska - Kody I"/>
+      <sheetName val="Brnenska - wyk2"/>
+      <sheetName val="Brnenska - wyk"/>
+      <sheetName val="Brnenska - contract signedv2"/>
       <sheetName val="Brnenska - contract signed"/>
+      <sheetName val="R4R"/>
       <sheetName val="Wykończenie budowlane"/>
       <sheetName val="Stan surowy"/>
+      <sheetName val="EC - ROMANOWICZA"/>
+      <sheetName val="EC - STOCZNIA"/>
+      <sheetName val="EC - BRNEŃSKA"/>
+      <sheetName val="EC - POHOSKIEGO"/>
+      <sheetName val="EC - BARDZKA"/>
+      <sheetName val="EC - JANA PAWŁA"/>
       <sheetName val="Opaczewska - keller"/>
       <sheetName val="Bardzka - Kody I"/>
       <sheetName val="udział SS do N03 - umowy"/>
@@ -621,173 +635,7 @@
       <sheetData sheetId="107"/>
       <sheetData sheetId="108"/>
       <sheetData sheetId="109"/>
-      <sheetData sheetId="110">
-        <row r="4">
-          <cell r="E4">
-            <v>13189</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>5849</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>9883</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>9380.0700000000015</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>36380.17</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>27839</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>1692</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>29531</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>324</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>873</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>1100000</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>167716386.99774998</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>1915808.6847999992</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40">
-            <v>4414079</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44">
-            <v>8475964.5531971008</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45">
-            <v>8992347.2480222024</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46">
-            <v>32274693.513980698</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47">
-            <v>21488112.304190762</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48">
-            <v>6543614.858957001</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49">
-            <v>3846666.5490708007</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>26541918.295966305</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>1485160</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>17174560.004198376</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>7153414.9939294979</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>10494992.387217235</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58">
-            <v>8154123.2635999983</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59">
-            <v>1560231.9930200002</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60">
-            <v>233553</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61">
-            <v>990810</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62">
-            <v>1921850.3476</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63">
-            <v>308215</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65">
-            <v>3746271</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="110"/>
       <sheetData sheetId="111"/>
       <sheetData sheetId="112"/>
       <sheetData sheetId="113"/>
@@ -817,7 +665,188 @@
       <sheetData sheetId="137"/>
       <sheetData sheetId="138"/>
       <sheetData sheetId="139"/>
-      <sheetData sheetId="140"/>
+      <sheetData sheetId="140">
+        <row r="4">
+          <cell r="M4">
+            <v>8627</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>3614</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>6005</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>5686.89</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>28310.68</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>20099</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>982</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>21081</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>261</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="M16">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="M17">
+            <v>620</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="M26">
+            <v>2209809.9493262982</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="M37">
+            <v>126474582.04596475</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="M39">
+            <v>1696355.7778052683</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="M40">
+            <v>765180.12408676615</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="M44">
+            <v>7958639.9526595371</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="M45">
+            <v>4685708.039493002</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="M46">
+            <v>27584187.476333722</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="M47">
+            <v>13930473.462220209</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="M48">
+            <v>3051304.4601880657</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="M49">
+            <v>1725842.7947463281</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="M50">
+            <v>16924122.340030454</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="M52">
+            <v>1450919.5928848851</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="M53">
+            <v>1525039.6573558222</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="M54">
+            <v>11478928.094861932</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="M55">
+            <v>6017422.8093521548</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="M56">
+            <v>35515.288902255757</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="M57">
+            <v>10454941.525389537</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="M58">
+            <v>5951138.570044524</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="M59">
+            <v>884136.18510875478</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="M60">
+            <v>700230.30960916413</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="M61">
+            <v>178623.43460676802</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="M62">
+            <v>651387.58731839038</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="M63">
+            <v>6022436.9343661135</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="M64">
+            <v>983112.62860110216</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="M65">
+            <v>1818935</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="141"/>
       <sheetData sheetId="142"/>
       <sheetData sheetId="143"/>
@@ -849,6 +878,98 @@
       <sheetData sheetId="169"/>
       <sheetData sheetId="170"/>
       <sheetData sheetId="171"/>
+      <sheetData sheetId="172"/>
+      <sheetData sheetId="173"/>
+      <sheetData sheetId="174"/>
+      <sheetData sheetId="175"/>
+      <sheetData sheetId="176"/>
+      <sheetData sheetId="177"/>
+      <sheetData sheetId="178"/>
+      <sheetData sheetId="179"/>
+      <sheetData sheetId="180"/>
+      <sheetData sheetId="181"/>
+      <sheetData sheetId="182"/>
+      <sheetData sheetId="183"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PRZEZENTACJA_ETAPY"/>
+      <sheetName val="WZÓR ECHO"/>
+      <sheetName val="Analiza cz1"/>
+      <sheetName val="Analiza cz2"/>
+      <sheetName val="wykonczenie sanitarne"/>
+      <sheetName val="wykonczenie elektryczne"/>
+      <sheetName val="dane pow 1"/>
+      <sheetName val="szac"/>
+      <sheetName val="dane powierzchniowe"/>
+      <sheetName val="wyk sanitarne"/>
+      <sheetName val="wyk elektryczne"/>
+      <sheetName val="sieci sanitarne "/>
+      <sheetName val="Wycena szacunkowa"/>
+      <sheetName val="Kody I"/>
+      <sheetName val="Szczegóły"/>
+      <sheetName val="Powierzchnie"/>
+      <sheetName val="Koszty budowy"/>
+      <sheetName val="pomocnicza"/>
+      <sheetName val="Opłata przyłączeniowa"/>
+      <sheetName val="Prace przeniesione do GW - E.Ł."/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
+        <row r="96">
+          <cell r="BP96">
+            <v>20953.95498000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="15">
+          <cell r="BV15">
+            <v>2391</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="BP18">
+            <v>571.49</v>
+          </cell>
+          <cell r="BV18">
+            <v>1377</v>
+          </cell>
+          <cell r="BY18">
+            <v>956.77</v>
+          </cell>
+          <cell r="CA18">
+            <v>1579.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1174,12 +1295,13 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B54"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,8 +1341,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <f>[1]R4R!E37/[1]R4R!E13</f>
-        <v>5679.3331413683918</v>
+        <f>[1]R4R!M37/[1]R4R!M13</f>
+        <v>5999.4583770202908</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,26 +1350,26 @@
         <v>9</v>
       </c>
       <c r="B6" s="6">
-        <f>[1]R4R!E4</f>
-        <v>13189</v>
+        <f>[1]R4R!M4</f>
+        <v>8627</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6">
-        <f>[1]R4R!E5</f>
-        <v>5849</v>
+        <f>[1]R4R!M5</f>
+        <v>3614</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6">
-        <f>[1]R4R!E6</f>
-        <v>9883</v>
+        <f>[1]R4R!M6</f>
+        <v>6005</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1264,7 +1386,7 @@
       </c>
       <c r="B10" s="6">
         <f>B6-B7</f>
-        <v>7340</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,7 +1394,8 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>10571</v>
+        <f>[2]Powierzchnie!$CA$18+[2]Powierzchnie!$BY$18+[2]Powierzchnie!$BV$18+[2]Powierzchnie!$BV$15</f>
+        <v>6303.87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1280,7 +1403,8 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>29249.055</v>
+        <f>[2]Szczegóły!$BP$96</f>
+        <v>20953.95498000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1289,7 +1413,7 @@
       </c>
       <c r="B13" s="6">
         <f>B14+B15</f>
-        <v>45760.24</v>
+        <v>33997.57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1297,8 +1421,8 @@
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <f>[1]R4R!E9</f>
-        <v>9380.0700000000015</v>
+        <f>[1]R4R!M9</f>
+        <v>5686.89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1306,8 +1430,8 @@
         <v>15</v>
       </c>
       <c r="B15" s="6">
-        <f>[1]R4R!E10</f>
-        <v>36380.17</v>
+        <f>[1]R4R!M10</f>
+        <v>28310.68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1440,7 @@
       </c>
       <c r="B16" s="6">
         <f>B17+B18</f>
-        <v>29531</v>
+        <v>21081</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,8 +1448,8 @@
         <v>17</v>
       </c>
       <c r="B17" s="6">
-        <f>[1]R4R!E11</f>
-        <v>27839</v>
+        <f>[1]R4R!M11</f>
+        <v>20099</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,8 +1457,8 @@
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <f>[1]R4R!E12</f>
-        <v>1692</v>
+        <f>[1]R4R!M12</f>
+        <v>982</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1467,7 @@
       </c>
       <c r="B19" s="6">
         <f>B15-B17-B18</f>
-        <v>6849.1699999999983</v>
+        <v>7229.68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1475,8 @@
         <v>20</v>
       </c>
       <c r="B20" s="6">
-        <v>735</v>
+        <f>[2]Powierzchnie!$BP$18</f>
+        <v>571.49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1484,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,8 +1492,8 @@
         <v>49</v>
       </c>
       <c r="B22" s="6">
-        <f>[1]R4R!E15</f>
-        <v>324</v>
+        <f>[1]R4R!M15</f>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,8 +1501,8 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <f>[1]R4R!E16</f>
-        <v>0</v>
+        <f>[1]R4R!M16</f>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,8 +1510,8 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <f>[1]R4R!E17</f>
-        <v>873</v>
+        <f>[1]R4R!M17</f>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1520,7 @@
       </c>
       <c r="B25" s="6">
         <f>B17/B24</f>
-        <v>31.888888888888889</v>
+        <v>32.417741935483868</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1529,7 @@
       </c>
       <c r="B26" s="6">
         <f>B19/B15</f>
-        <v>0.18826657489505955</v>
+        <v>0.25536935177819819</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1538,7 @@
       </c>
       <c r="B27" s="6">
         <f>B14/B16</f>
-        <v>0.31763468897091196</v>
+        <v>0.26976376832218585</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,8 +1546,8 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <f>[1]R4R!E26</f>
-        <v>1100000</v>
+        <f>[1]R4R!M26</f>
+        <v>2209809.9493262982</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,8 +1555,8 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <f>[1]R4R!E37</f>
-        <v>167716386.99774998</v>
+        <f>[1]R4R!M37</f>
+        <v>126474582.04596475</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,8 +1564,8 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <f>[1]R4R!E39</f>
-        <v>1915808.6847999992</v>
+        <f>[1]R4R!M39</f>
+        <v>1696355.7778052683</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,8 +1573,8 @@
         <v>50</v>
       </c>
       <c r="B31" s="6">
-        <f>[1]R4R!E40</f>
-        <v>4414079</v>
+        <f>[1]R4R!M40</f>
+        <v>765180.12408676615</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1457,7 +1582,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="6">
-        <f>[1]R4R!E42</f>
+        <f>[1]R4R!M42</f>
         <v>0</v>
       </c>
     </row>
@@ -1466,7 +1591,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="6">
-        <f>[1]R4R!E43</f>
+        <f>[1]R4R!M43</f>
         <v>0</v>
       </c>
     </row>
@@ -1475,8 +1600,8 @@
         <v>53</v>
       </c>
       <c r="B34" s="6">
-        <f>[1]R4R!E44</f>
-        <v>8475964.5531971008</v>
+        <f>[1]R4R!M44</f>
+        <v>7958639.9526595371</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,8 +1609,8 @@
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <f>[1]R4R!E45</f>
-        <v>8992347.2480222024</v>
+        <f>[1]R4R!M45</f>
+        <v>4685708.039493002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,8 +1618,8 @@
         <v>31</v>
       </c>
       <c r="B36" s="6">
-        <f>[1]R4R!E46</f>
-        <v>32274693.513980698</v>
+        <f>[1]R4R!M46</f>
+        <v>27584187.476333722</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,8 +1627,8 @@
         <v>32</v>
       </c>
       <c r="B37" s="6">
-        <f>[1]R4R!E47</f>
-        <v>21488112.304190762</v>
+        <f>[1]R4R!M47</f>
+        <v>13930473.462220209</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,8 +1636,8 @@
         <v>33</v>
       </c>
       <c r="B38" s="6">
-        <f>[1]R4R!E48</f>
-        <v>6543614.858957001</v>
+        <f>[1]R4R!M48</f>
+        <v>3051304.4601880657</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,8 +1645,8 @@
         <v>35</v>
       </c>
       <c r="B39" s="6">
-        <f>[1]R4R!E49</f>
-        <v>3846666.5490708007</v>
+        <f>[1]R4R!M49</f>
+        <v>1725842.7947463281</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1529,8 +1654,8 @@
         <v>34</v>
       </c>
       <c r="B40" s="6">
-        <f>[1]R4R!E50</f>
-        <v>26541918.295966305</v>
+        <f>[1]R4R!M50</f>
+        <v>16924122.340030454</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,8 +1663,8 @@
         <v>36</v>
       </c>
       <c r="B41" s="6">
-        <f>[1]R4R!E52</f>
-        <v>1485160</v>
+        <f>[1]R4R!M52</f>
+        <v>1450919.5928848851</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1672,8 @@
         <v>54</v>
       </c>
       <c r="B42" s="6">
-        <v>0</v>
+        <f>[1]R4R!M53</f>
+        <v>1525039.6573558222</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,8 +1681,8 @@
         <v>37</v>
       </c>
       <c r="B43" s="6">
-        <f>[1]R4R!E54</f>
-        <v>17174560.004198376</v>
+        <f>[1]R4R!M54</f>
+        <v>11478928.094861932</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,8 +1690,8 @@
         <v>38</v>
       </c>
       <c r="B44" s="6">
-        <f>[1]R4R!E55</f>
-        <v>7153414.9939294979</v>
+        <f>[1]R4R!M55</f>
+        <v>6017422.8093521548</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,8 +1699,8 @@
         <v>39</v>
       </c>
       <c r="B45" s="6">
-        <f>[1]R4R!E56</f>
-        <v>0</v>
+        <f>[1]R4R!M56</f>
+        <v>35515.288902255757</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,8 +1708,8 @@
         <v>40</v>
       </c>
       <c r="B46" s="6">
-        <f>[1]R4R!E57</f>
-        <v>10494992.387217235</v>
+        <f>[1]R4R!M57</f>
+        <v>10454941.525389537</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,8 +1717,8 @@
         <v>41</v>
       </c>
       <c r="B47" s="6">
-        <f>[1]R4R!E58</f>
-        <v>8154123.2635999983</v>
+        <f>[1]R4R!M58</f>
+        <v>5951138.570044524</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,8 +1726,8 @@
         <v>42</v>
       </c>
       <c r="B48" s="6">
-        <f>[1]R4R!E59</f>
-        <v>1560231.9930200002</v>
+        <f>[1]R4R!M59</f>
+        <v>884136.18510875478</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,17 +1735,17 @@
         <v>43</v>
       </c>
       <c r="B49" s="6">
-        <f>[1]R4R!E60</f>
-        <v>233553</v>
+        <f>[1]R4R!M60</f>
+        <v>700230.30960916413</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B50" s="6">
-        <f>[1]R4R!E61</f>
-        <v>990810</v>
+        <f>[1]R4R!M61</f>
+        <v>178623.43460676802</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,8 +1753,8 @@
         <v>44</v>
       </c>
       <c r="B51" s="6">
-        <f>[1]R4R!E62</f>
-        <v>1921850.3476</v>
+        <f>[1]R4R!M62</f>
+        <v>651387.58731839038</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,8 +1762,8 @@
         <v>45</v>
       </c>
       <c r="B52" s="6">
-        <f>[1]R4R!E63</f>
-        <v>308215</v>
+        <f>[1]R4R!M63</f>
+        <v>6022436.9343661135</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,8 +1771,8 @@
         <v>46</v>
       </c>
       <c r="B53" s="6">
-        <f>[1]R4R!E64</f>
-        <v>0</v>
+        <f>[1]R4R!M64</f>
+        <v>983112.62860110216</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,13 +1780,13 @@
         <v>47</v>
       </c>
       <c r="B54" s="6">
-        <f>[1]R4R!E65</f>
-        <v>3746271</v>
+        <f>[1]R4R!M65</f>
+        <v>1818935</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{899AD2C1-9A2D-48EE-90D5-D40BF0FD5974}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{BA930769-1EFD-4F38-89CA-239472D8C702}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/dataTable.xlsx
+++ b/public/dataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotawski\Coding\estimationCenter\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SATECHI/Programowanie/MyIdeas/estimation_center/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0880165A-FF22-4B4B-ADE1-39FD3058EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE84E1B-F0A4-2641-A656-F887C7288EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Nazwa</t>
   </si>
@@ -105,9 +105,6 @@
     <t>powierzchnia garazu w nadziemiu</t>
   </si>
   <si>
-    <t>liczba kondygnacji</t>
-  </si>
-  <si>
     <t>liczba parkliftow</t>
   </si>
   <si>
@@ -223,6 +220,12 @@
   </si>
   <si>
     <t>Wrocław</t>
+  </si>
+  <si>
+    <t>liczba kondygnacji podziemnych</t>
+  </si>
+  <si>
+    <t>liczba kondygnacji nadziemnych</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -294,7 +297,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -305,14 +308,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dziesiętny" xfId="2" builtinId="3"/>
@@ -1292,35 +1295,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA469301-F209-9D44-A8FF-0D359AB0CA09}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1328,15 +1331,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>5999.4583770202908</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1354,33 +1357,33 @@
         <v>8627</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6">
         <f>[1]R4R!M5</f>
         <v>3614</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6">
         <f>[1]R4R!M6</f>
         <v>6005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>6303.87</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>20953.95498000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>33997.57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>5686.89</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>28310.68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>21081</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>20099</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>7229.68</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1479,307 +1482,315 @@
         <v>571.49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6">
         <f>[1]R4R!M15</f>
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
         <f>[1]R4R!M16</f>
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6">
         <f>[1]R4R!M17</f>
         <v>620</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6">
+        <f>B17/B25</f>
+        <v>32.417741935483868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
-        <f>B17/B24</f>
-        <v>32.417741935483868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="B27" s="6">
         <f>B19/B15</f>
         <v>0.25536935177819819</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6">
         <f>B14/B16</f>
         <v>0.26976376832218585</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6">
         <f>[1]R4R!M26</f>
         <v>2209809.9493262982</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6">
         <f>[1]R4R!M37</f>
         <v>126474582.04596475</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6">
         <f>[1]R4R!M39</f>
         <v>1696355.7778052683</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="6">
         <f>[1]R4R!M40</f>
         <v>765180.12408676615</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="6">
         <f>[1]R4R!M42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="6">
         <f>[1]R4R!M43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="6">
         <f>[1]R4R!M44</f>
         <v>7958639.9526595371</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="6">
         <f>[1]R4R!M45</f>
         <v>4685708.039493002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6">
         <f>[1]R4R!M46</f>
         <v>27584187.476333722</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="6">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="6">
         <f>[1]R4R!M47</f>
         <v>13930473.462220209</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="6">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6">
         <f>[1]R4R!M48</f>
         <v>3051304.4601880657</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="6">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
         <f>[1]R4R!M49</f>
         <v>1725842.7947463281</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="6">
         <f>[1]R4R!M50</f>
         <v>16924122.340030454</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="6">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="6">
         <f>[1]R4R!M52</f>
         <v>1450919.5928848851</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="6">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="6">
         <f>[1]R4R!M53</f>
         <v>1525039.6573558222</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="6">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="6">
         <f>[1]R4R!M54</f>
         <v>11478928.094861932</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="6">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="6">
         <f>[1]R4R!M55</f>
         <v>6017422.8093521548</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="6">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="6">
         <f>[1]R4R!M56</f>
         <v>35515.288902255757</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="6">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="6">
         <f>[1]R4R!M57</f>
         <v>10454941.525389537</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="6">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="6">
         <f>[1]R4R!M58</f>
         <v>5951138.570044524</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="6">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="6">
         <f>[1]R4R!M59</f>
         <v>884136.18510875478</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="6">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="6">
         <f>[1]R4R!M60</f>
         <v>700230.30960916413</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="6">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6">
         <f>[1]R4R!M61</f>
         <v>178623.43460676802</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="6">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="6">
         <f>[1]R4R!M62</f>
         <v>651387.58731839038</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="6">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="6">
         <f>[1]R4R!M63</f>
         <v>6022436.9343661135</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="6">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="6">
         <f>[1]R4R!M64</f>
         <v>983112.62860110216</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="6">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="6">
         <f>[1]R4R!M65</f>
         <v>1818935</v>
       </c>
@@ -1800,9 +1811,9 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>

--- a/public/dataTable.xlsx
+++ b/public/dataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotawski\Coding\estimationCenter\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SATECHI/Programowanie/MyIdeas/estimation_center/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572B8C6E-53A5-4AF6-B28D-2DCDD2DE4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF19116-98FF-7A42-8A92-FE59A52D5A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Nazwa</t>
   </si>
@@ -218,10 +218,13 @@
     <t>liczba kondygnacji nadziemnych</t>
   </si>
   <si>
-    <t>Wycena</t>
-  </si>
-  <si>
-    <t>Górczewska E4</t>
+    <t>Kraków</t>
+  </si>
+  <si>
+    <t>Jana Pawła</t>
+  </si>
+  <si>
+    <t>Kontraktacja</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -293,7 +296,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -304,14 +307,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dziesiętny" xfId="2" builtinId="3"/>
@@ -338,233 +341,547 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Kody I"/>
-      <sheetName val="Powierzchnie"/>
-      <sheetName val="sieci cz.2"/>
-      <sheetName val="sieci"/>
-      <sheetName val="EC"/>
+      <sheetName val="Dmowskiego - Etap 2 Szczegóły"/>
+      <sheetName val="Dmowskiego - Etap 1 Szczegóły"/>
+      <sheetName val="Bardzka - wycinki"/>
+      <sheetName val="Bardzka - ektryczna"/>
+      <sheetName val="Bardzka - PORR GW"/>
+      <sheetName val="Bardzka  - CONTRACT SIGNEDv2"/>
+      <sheetName val="Bardzka  - CONTRACT SIGNED"/>
+      <sheetName val="Pohoskiego - kody I"/>
+      <sheetName val="Pohoskiego - contract signedv2"/>
+      <sheetName val="Pohoskiego - contract signed"/>
+      <sheetName val="Pohoskiego - zabezpieczenie wyk"/>
+      <sheetName val="Pohoskiego SS"/>
+      <sheetName val="Pohoskiego - windy"/>
+      <sheetName val="Pohoskiego - przylacza2"/>
+      <sheetName val="Pohoskiego - przylacza"/>
+      <sheetName val="Pohoskiego okna"/>
+      <sheetName val="Pohoskiego - drzwi"/>
+      <sheetName val="Pohoskiego - portale"/>
+      <sheetName val="Pohoskiego okna - an1"/>
+      <sheetName val="Pohoskiego - elektryka"/>
+      <sheetName val="Pohoskiego - instalacje sanitar"/>
+      <sheetName val="Pohoskiego - i sanitarne 2"/>
+      <sheetName val="Pohoskiego - elektryka an1"/>
+      <sheetName val="Pohoskiego - wezel"/>
+      <sheetName val="Pohoskiego - pzt"/>
+      <sheetName val="Pohoskiego roboty wykończeniowe"/>
+      <sheetName val="Romanowicza zabezpieczenie"/>
+      <sheetName val="Romanowicza - Express SS"/>
+      <sheetName val="Romanowicza - windy"/>
+      <sheetName val="Romanowicza - Express an1"/>
+      <sheetName val="Romanowicza - domofony"/>
+      <sheetName val="Romanowicza - MGBuilding"/>
+      <sheetName val="Romanowicza - MGBuilding2"/>
+      <sheetName val="Romanowicza - wykopy"/>
+      <sheetName val="Romanowicza Express an 3"/>
+      <sheetName val="Dmowskiego - Etap 1 Kody I"/>
+      <sheetName val="Dmowskiego - Etap 2 Kody I"/>
+      <sheetName val="Jana Pawła- KODY I "/>
+      <sheetName val="Jana Pawła - windy"/>
+      <sheetName val="Stocznia - SS"/>
+      <sheetName val="Stocznia - ściany szczelin A2"/>
+      <sheetName val="Stocznia - windy"/>
+      <sheetName val="Stocznia - GW"/>
+      <sheetName val="Stocznia badania archeologiczne"/>
+      <sheetName val="Stocznia - roboty ziemne"/>
+      <sheetName val="Stocznia - domofony"/>
+      <sheetName val="Stocznia - ściany szczeli A1"/>
+      <sheetName val="Stocznia - windy a1"/>
+      <sheetName val="Stocznia - przylacza"/>
+      <sheetName val="Stocznia Remediacja A1"/>
+      <sheetName val="Stocznia Remediacja"/>
+      <sheetName val="Stocznia - ogrodzenie"/>
+      <sheetName val="Stocznia - contract signedv2"/>
+      <sheetName val="Stocznia - contract signed"/>
+      <sheetName val="Romanowicza - contract signedv2"/>
+      <sheetName val="Romanowicza - contract signed"/>
+      <sheetName val="Stocznia - Keller"/>
+      <sheetName val="Brnenska - zasilanie placu budo"/>
+      <sheetName val="Brnenska - zabezpieczenia wykop"/>
+      <sheetName val="Brnenska adm an3"/>
+      <sheetName val="Brnenska adm an2"/>
+      <sheetName val="Brnenska adm an1"/>
+      <sheetName val="Brnenska adm"/>
+      <sheetName val="Brnenska kobi an1"/>
+      <sheetName val="Brnenska kobi"/>
+      <sheetName val="Brnenska wer dom an 2"/>
+      <sheetName val="Brnenska wer dom an 1"/>
+      <sheetName val="Brnenska wer dom"/>
+      <sheetName val="Brnenska szajowski an1"/>
+      <sheetName val="Brnenska szajowski"/>
+      <sheetName val="Brnenska SS"/>
+      <sheetName val="Brneńska przyłącza 4"/>
+      <sheetName val="Brneńska przyłącza"/>
+      <sheetName val="Brneńska przyłącza2"/>
+      <sheetName val="Brnenska - windy"/>
+      <sheetName val="Brneńska okna"/>
+      <sheetName val="Brneńska - sanitarne2"/>
+      <sheetName val="Brneńska - elektryka2"/>
+      <sheetName val="Brneńska - elew"/>
+      <sheetName val="Brneńska - wyk2"/>
+      <sheetName val="Brnenska - drzwi stalowe"/>
+      <sheetName val="Brnenska - witryny2"/>
+      <sheetName val="Brnenska - zabydowy meblowe2"/>
+      <sheetName val="Brneńska - bramy"/>
+      <sheetName val="Brneńska - drzwi2"/>
+      <sheetName val="Brneńska portale 2"/>
+      <sheetName val="Brneńska - żywica"/>
+      <sheetName val="Brneńska - domofony"/>
+      <sheetName val="Brneńska - droga"/>
+      <sheetName val="Brneńska - balustrady"/>
+      <sheetName val="Brneńska - podnosnik"/>
+      <sheetName val="Brneńska - wyk 3"/>
+      <sheetName val="Brneńska - elektryka"/>
+      <sheetName val="Brneńska - sanitarne3"/>
+      <sheetName val="Brneńska - wyk"/>
+      <sheetName val="Brneńska przyłącza3"/>
+      <sheetName val="Brneńska - drogaa"/>
+      <sheetName val="Brnenska -dfa"/>
+      <sheetName val="Brnenska - witryny"/>
+      <sheetName val="Brneńska portale"/>
+      <sheetName val="Brneńska - drzwi"/>
+      <sheetName val="Brnenska - zabydowy meblowe"/>
+      <sheetName val="Brneńska SS"/>
+      <sheetName val="Brneńska skrzynki na listy"/>
+      <sheetName val="Brneńska - master key"/>
+      <sheetName val="Brneńska - sanitarne"/>
+      <sheetName val="Brneńska siw"/>
+      <sheetName val="Brnenska - mur oporowy2"/>
+      <sheetName val="Brneńska - mur oporowy"/>
+      <sheetName val="Brneńska S0"/>
+      <sheetName val="Brnenska - geoprojekt"/>
+      <sheetName val="Jana Pawła - TES (4)"/>
+      <sheetName val="Jana Pawła - Oferta stan zero"/>
+      <sheetName val="Jana Pawła - Oferta nadziemie"/>
+      <sheetName val="Jana Pawła - deweloperski (4)"/>
+      <sheetName val="Jana Pawła - Drogi i Zieleń"/>
+      <sheetName val="Jana Pawła - Instalacje san"/>
+      <sheetName val="Jana Pawła - Inst.elektr."/>
+      <sheetName val="Zielony Politechnika Kody I"/>
+      <sheetName val="Zielony Zatoka Kody I"/>
+      <sheetName val="Zielony Trojkąt - rozbiorki"/>
+      <sheetName val="Zielony Trojkąt - windy2"/>
+      <sheetName val="Zielony Trojkąt - SS"/>
+      <sheetName val="Zielony Trojkąt - SS3"/>
+      <sheetName val="Zielony Trojkąt - SS2"/>
+      <sheetName val="Zielony Trojkąt - windy"/>
+      <sheetName val="Zielony Trojkąt - okna"/>
+      <sheetName val="Zielony Trojkąt - zasilanie pla"/>
+      <sheetName val="Zielony Trojkąt - przyl dla bud"/>
+      <sheetName val="Zielony Trojkąt - remediacja"/>
+      <sheetName val="Zielony Trojkąt - mury dzialowe"/>
+      <sheetName val="Zielony Trojkąt - mury"/>
+      <sheetName val="Zielony Trojkąt - sanitarne"/>
+      <sheetName val="Zielony Trojkat - budget"/>
+      <sheetName val="Curtis - Kody I"/>
+      <sheetName val="Opaczewska - Kody I"/>
+      <sheetName val="Brnenska - wyk2"/>
+      <sheetName val="Brnenska - wyk"/>
+      <sheetName val="Brnenska - contract signedv2"/>
+      <sheetName val="Brnenska - contract signed"/>
+      <sheetName val="R4R"/>
+      <sheetName val="Wykończenie budowlane"/>
+      <sheetName val="Stan surowy"/>
+      <sheetName val="EC - ROMANOWICZA"/>
+      <sheetName val="EC - STOCZNIA"/>
+      <sheetName val="EC - BRNEŃSKA"/>
+      <sheetName val="EC - POHOSKIEGO"/>
+      <sheetName val="EC - BARDZKA"/>
+      <sheetName val="EC - JANA PAWŁA"/>
+      <sheetName val="Opaczewska - keller"/>
+      <sheetName val="Bardzka - Kody I"/>
+      <sheetName val="udział SS do N03 - umowy"/>
+      <sheetName val="udział SS do N03 - wyceny"/>
+      <sheetName val="Park zachod budget in progress"/>
+      <sheetName val="Jaworska budget in progress"/>
+      <sheetName val="Kilińskiego budget in progress"/>
+      <sheetName val="Park Zachodni - umowy"/>
+      <sheetName val="Kilińskiego - umowy"/>
+      <sheetName val="Jaworska 2 - umowy"/>
+      <sheetName val="Windy zakupy centralne"/>
+      <sheetName val="Zielony T - Budmar"/>
+      <sheetName val="Stocznia - Promonte"/>
+      <sheetName val="Jana Pawła - Expres"/>
+      <sheetName val="Pohoskiego PRIŻ"/>
+      <sheetName val="Pohoskiego CONSTEEL"/>
+      <sheetName val="Brneńska ERBUD"/>
+      <sheetName val="Brneńska WIPEN"/>
+      <sheetName val="Brneńska GGTS"/>
+      <sheetName val="Romanowicza Aarsleff"/>
+      <sheetName val="Romanowicza Expres"/>
+      <sheetName val="Porównanie - WYCENY"/>
+      <sheetName val="Zielony T Politechnika Kody I"/>
+      <sheetName val="Zielony T Zatoka Kody I"/>
+      <sheetName val="Dmowskiego Etap 2 Kody I"/>
+      <sheetName val="Dmowskiego Etap 1 Kody I"/>
+      <sheetName val="Dmowskiego E1 + E2 Wycena szac"/>
+      <sheetName val="Jana Pawła - KODY I"/>
+      <sheetName val="Jana Pawła - Szczegóły"/>
+      <sheetName val="Pohoskiego - Szczegóły"/>
+      <sheetName val="Brneńska - Kody I"/>
+      <sheetName val="Brneńska - Szczegóły"/>
+      <sheetName val="Stocznia - Kody I"/>
+      <sheetName val="Romanowicza - Szczegóły"/>
+      <sheetName val="Romanowicza - Kody I"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="D10">
-            <v>5375</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>1910</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>555.79999999999995</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>2458</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>2417</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>7.8000000000001819</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>9573.7000000000007</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>1814.5</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>7759.2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>6186</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>6186</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>307</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>97910</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>6286.7566753109741</v>
-          </cell>
-          <cell r="F54">
-            <v>38889876.793473683</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>839730.81040000007</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>4428504.3724000007</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>2057640</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>7660528.7999999998</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="F103">
-            <v>4158826.816000001</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="D136">
-            <v>6232.9544000000014</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="F137">
-            <v>2065724</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="F152">
-            <v>725800</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="F164">
-            <v>5333664</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="F194">
-            <v>450000</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="F201">
-            <v>3276142.92</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="F217">
-            <v>1274055.5800000003</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="F230">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="F237">
-            <v>2189611.3200000003</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="F251">
-            <v>1459740.8800000004</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="F288">
-            <v>607080</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="F302">
-            <v>189605</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="F314">
-            <v>268800</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="F324">
-            <v>1997568.4550000001</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="F345">
-            <v>20000</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="F351">
-            <v>1771285.8396736842</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="F366">
-            <v>173208</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="F377">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="12">
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+      <sheetData sheetId="85"/>
+      <sheetData sheetId="86"/>
+      <sheetData sheetId="87"/>
+      <sheetData sheetId="88"/>
+      <sheetData sheetId="89"/>
+      <sheetData sheetId="90"/>
+      <sheetData sheetId="91"/>
+      <sheetData sheetId="92"/>
+      <sheetData sheetId="93"/>
+      <sheetData sheetId="94"/>
+      <sheetData sheetId="95"/>
+      <sheetData sheetId="96"/>
+      <sheetData sheetId="97"/>
+      <sheetData sheetId="98"/>
+      <sheetData sheetId="99"/>
+      <sheetData sheetId="100"/>
+      <sheetData sheetId="101"/>
+      <sheetData sheetId="102"/>
+      <sheetData sheetId="103"/>
+      <sheetData sheetId="104"/>
+      <sheetData sheetId="105"/>
+      <sheetData sheetId="106"/>
+      <sheetData sheetId="107"/>
+      <sheetData sheetId="108"/>
+      <sheetData sheetId="109"/>
+      <sheetData sheetId="110"/>
+      <sheetData sheetId="111"/>
+      <sheetData sheetId="112"/>
+      <sheetData sheetId="113"/>
+      <sheetData sheetId="114"/>
+      <sheetData sheetId="115"/>
+      <sheetData sheetId="116"/>
+      <sheetData sheetId="117"/>
+      <sheetData sheetId="118"/>
+      <sheetData sheetId="119"/>
+      <sheetData sheetId="120"/>
+      <sheetData sheetId="121"/>
+      <sheetData sheetId="122"/>
+      <sheetData sheetId="123"/>
+      <sheetData sheetId="124"/>
+      <sheetData sheetId="125"/>
+      <sheetData sheetId="126"/>
+      <sheetData sheetId="127"/>
+      <sheetData sheetId="128"/>
+      <sheetData sheetId="129"/>
+      <sheetData sheetId="130"/>
+      <sheetData sheetId="131"/>
+      <sheetData sheetId="132"/>
+      <sheetData sheetId="133"/>
+      <sheetData sheetId="134"/>
+      <sheetData sheetId="135"/>
+      <sheetData sheetId="136"/>
+      <sheetData sheetId="137"/>
+      <sheetData sheetId="138"/>
+      <sheetData sheetId="139"/>
+      <sheetData sheetId="140">
+        <row r="4">
+          <cell r="O4">
+            <v>3424</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="O5">
+            <v>709.75</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="O6">
+            <v>815</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="O12">
+            <v>815</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="O13">
+            <v>10439.269999999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="O14">
+            <v>8179.3799999999992</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="O15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="O16">
+            <v>8179.3799999999992</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="O21">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="O22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="O23">
+            <v>283</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="O32">
+            <v>60000</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="O43">
+            <v>49500425.507282011</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="O45">
+            <v>360110.00799999997</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="O46">
+            <v>129600</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="O50">
+            <v>1680710.58038264</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="O51">
+            <v>1310570.0434726416</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="O52">
+            <v>10564070.756622612</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="O53">
+            <v>5445201.6796182012</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="O54">
+            <v>1245665.1108137181</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="O55">
+            <v>238630.32105175586</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="O56">
+            <v>9295885.167720465</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="O58">
+            <v>871310.00000000012</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="O60">
+            <v>6412317.7369045932</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="O61">
+            <v>2117531.2459094571</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="O62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="O63">
+            <v>3434855.2912000008</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="O64">
+            <v>2990955.4448000002</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="O65">
+            <v>529564.62078593671</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="O66">
+            <v>73371.5</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="O67">
+            <v>84674.5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="O68">
+            <v>837680.5</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="O69">
+            <v>1622950</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="O70">
+            <v>254771</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="141"/>
+      <sheetData sheetId="142"/>
+      <sheetData sheetId="143"/>
+      <sheetData sheetId="144"/>
+      <sheetData sheetId="145"/>
+      <sheetData sheetId="146"/>
+      <sheetData sheetId="147"/>
+      <sheetData sheetId="148"/>
+      <sheetData sheetId="149"/>
+      <sheetData sheetId="150"/>
+      <sheetData sheetId="151"/>
+      <sheetData sheetId="152"/>
+      <sheetData sheetId="153"/>
+      <sheetData sheetId="154"/>
+      <sheetData sheetId="155"/>
+      <sheetData sheetId="156"/>
+      <sheetData sheetId="157"/>
+      <sheetData sheetId="158"/>
+      <sheetData sheetId="159"/>
+      <sheetData sheetId="160"/>
+      <sheetData sheetId="161"/>
+      <sheetData sheetId="162"/>
+      <sheetData sheetId="163"/>
+      <sheetData sheetId="164"/>
+      <sheetData sheetId="165"/>
+      <sheetData sheetId="166"/>
+      <sheetData sheetId="167"/>
+      <sheetData sheetId="168"/>
+      <sheetData sheetId="169"/>
+      <sheetData sheetId="170"/>
+      <sheetData sheetId="171"/>
+      <sheetData sheetId="172"/>
+      <sheetData sheetId="173"/>
+      <sheetData sheetId="174"/>
+      <sheetData sheetId="175"/>
+      <sheetData sheetId="176"/>
+      <sheetData sheetId="177"/>
+      <sheetData sheetId="178"/>
+      <sheetData sheetId="179"/>
+      <sheetData sheetId="180"/>
+      <sheetData sheetId="181"/>
+      <sheetData sheetId="182"/>
+      <sheetData sheetId="183"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -893,13 +1210,13 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -907,15 +1224,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -923,475 +1240,470 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <f>'[1]Kody I'!E54</f>
-        <v>6286.7566753109741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O43/[1]R4R!O16</f>
+        <v>6051.855459372473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6">
-        <f>'[1]Kody I'!D10</f>
-        <v>5375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O4</f>
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="6">
-        <f>'[1]Kody I'!D13</f>
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O5</f>
+        <v>709.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="6">
-        <f>'[1]Kody I'!D11</f>
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O6</f>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="6">
-        <f>'[1]Kody I'!D12</f>
-        <v>555.79999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>709.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
         <f>B6-B7</f>
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2714.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <f>'[1]Kody I'!D15+'[1]Kody I'!D16+'[1]Kody I'!D17</f>
-        <v>2497.8000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <f>'[1]Kody I'!D136</f>
-        <v>6232.9544000000014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8992.8556599999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <f>'[1]Kody I'!D18</f>
-        <v>9573.7000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B14+B15</f>
+        <v>11254.269999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <f>'[1]Kody I'!D19</f>
-        <v>1814.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O12</f>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6">
-        <f>'[1]Kody I'!D20</f>
-        <v>7759.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O13</f>
+        <v>10439.269999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6">
-        <f>'[1]Kody I'!D21</f>
-        <v>6186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B17+B18</f>
+        <v>8179.3799999999992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="6">
-        <f>'[1]Kody I'!D24</f>
-        <v>6186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O14</f>
+        <v>8179.3799999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <f>'[1]Kody I'!D23</f>
+        <f>[1]R4R!O15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6">
         <f>B15-B17-B18</f>
-        <v>1573.1999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2259.8899999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6">
-        <f>[1]Powierzchnie!E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="6">
-        <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="6">
-        <f>'[1]Kody I'!D35</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O21</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="6">
-        <f>'[1]Kody I'!D37</f>
+        <f>[1]R4R!O22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="6">
-        <f>'[1]Kody I'!D31</f>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O23</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="6">
         <f>B17/B25</f>
-        <v>20.149837133550488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28.90240282685512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="6">
         <f>B19/B15</f>
-        <v>0.20275286111970303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.21647969637723707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="6">
         <f>B14/B16</f>
-        <v>0.29332363401228578</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9.964080407072419E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="6">
-        <f>'[1]Kody I'!F41</f>
-        <v>97910</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O32</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="6">
-        <f>'[1]Kody I'!F54</f>
-        <v>38889876.793473683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O43</f>
+        <v>49500425.507282011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="6">
-        <f>'[1]Kody I'!F55-'[1]Kody I'!F61</f>
-        <v>839730.81040000007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O45</f>
+        <v>360110.00799999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="6">
-        <f>'[1]Kody I'!F61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O46</f>
+        <v>129600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="6">
-        <f>'[1]Kody I'!F77</f>
+        <f>[1]R4R!O48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="6">
-        <f>'[1]Kody I'!F74</f>
+        <f>[1]R4R!O49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="6">
-        <f>'[1]Kody I'!F63-'[1]Kody I'!F64-'[1]Kody I'!F77-'[1]Kody I'!F74</f>
-        <v>2370864.3724000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O50</f>
+        <v>1680710.58038264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="6">
-        <f>'[1]Kody I'!F64</f>
-        <v>2057640</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O51</f>
+        <v>1310570.0434726416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="6">
-        <f>'[1]Kody I'!F86</f>
-        <v>7660528.7999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O52</f>
+        <v>10564070.756622612</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="6">
-        <f>'[1]Kody I'!F103</f>
-        <v>4158826.816000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O53</f>
+        <v>5445201.6796182012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="6">
-        <f>'[1]Kody I'!F137</f>
-        <v>2065724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O54</f>
+        <v>1245665.1108137181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="6">
-        <f>'[1]Kody I'!F152</f>
-        <v>725800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O55</f>
+        <v>238630.32105175586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="6">
-        <f>'[1]Kody I'!F164</f>
-        <v>5333664</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O56</f>
+        <v>9295885.167720465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="6">
-        <f>'[1]Kody I'!F194-'[1]Kody I'!F199</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O58</f>
+        <v>871310.00000000012</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="6">
-        <f>'[1]Kody I'!F199</f>
+        <f>[1]R4R!O59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="6">
-        <f>'[1]Kody I'!F201</f>
-        <v>3276142.92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O60</f>
+        <v>6412317.7369045932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="6">
-        <f>'[1]Kody I'!F217</f>
-        <v>1274055.5800000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O61</f>
+        <v>2117531.2459094571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="6">
-        <f>'[1]Kody I'!F230</f>
+        <f>[1]R4R!O62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="6">
-        <f>'[1]Kody I'!F237</f>
-        <v>2189611.3200000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O63</f>
+        <v>3434855.2912000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="6">
-        <f>'[1]Kody I'!F251</f>
-        <v>1459740.8800000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O64</f>
+        <v>2990955.4448000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="6">
-        <f>'[1]Kody I'!F288+'[1]Kody I'!F345</f>
-        <v>627080</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O65</f>
+        <v>529564.62078593671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="6">
-        <f>'[1]Kody I'!F302</f>
-        <v>189605</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O66</f>
+        <v>73371.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="6">
-        <f>'[1]Kody I'!F314</f>
-        <v>268800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O67</f>
+        <v>84674.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="6">
-        <f>'[1]Kody I'!F324</f>
-        <v>1997568.4550000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O68</f>
+        <v>837680.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="6">
-        <f>'[1]Kody I'!F351</f>
-        <v>1771285.8396736842</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O69</f>
+        <v>1622950</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="6">
-        <f>'[1]Kody I'!F366</f>
-        <v>173208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <f>[1]R4R!O70</f>
+        <v>254771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="6">
-        <f>'[1]Kody I'!F377</f>
+        <f>[1]R4R!O71</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8FA41D15-A840-4FE5-8A17-2C4BF5FC5F9D}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{5B5ABE0B-4E15-BF4E-8004-CB4B9162EACA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1405,9 +1717,9 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>

--- a/public/dataTable.xlsx
+++ b/public/dataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SATECHI/Programowanie/MyIdeas/estimation_center/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF19116-98FF-7A42-8A92-FE59A52D5A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B08246E-4CB7-5B48-AA5F-0C8D1FA669DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
@@ -1703,7 +1703,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{5B5ABE0B-4E15-BF4E-8004-CB4B9162EACA}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{259D1C23-5D1D-C447-95B3-2DF83522D411}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/dataTable.xlsx
+++ b/public/dataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SATECHI/Programowanie/MyIdeas/estimation_center/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B08246E-4CB7-5B48-AA5F-0C8D1FA669DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF28C1-95E3-F842-B90F-813C350E15D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
@@ -1703,7 +1703,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{259D1C23-5D1D-C447-95B3-2DF83522D411}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8AF8F5C0-A843-6148-B74C-8CC6B4C166F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/dataTable.xlsx
+++ b/public/dataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SATECHI/Programowanie/MyIdeas/estimation_center/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotawski\Coding\estimationCenter\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF28C1-95E3-F842-B90F-813C350E15D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C0664-5DDD-4E98-8BBC-C912C3C2C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="2" r:id="rId1"/>
@@ -218,13 +218,13 @@
     <t>liczba kondygnacji nadziemnych</t>
   </si>
   <si>
-    <t>Kraków</t>
-  </si>
-  <si>
-    <t>Jana Pawła</t>
-  </si>
-  <si>
-    <t>Kontraktacja</t>
+    <t>Poznań</t>
+  </si>
+  <si>
+    <t>Wycena</t>
+  </si>
+  <si>
+    <t>Dmowskiego E2</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -307,14 +307,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dziesiętny" xfId="2" builtinId="3"/>
@@ -341,190 +341,42 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Dmowskiego - Etap 2 Szczegóły"/>
-      <sheetName val="Dmowskiego - Etap 1 Szczegóły"/>
-      <sheetName val="Bardzka - wycinki"/>
-      <sheetName val="Bardzka - ektryczna"/>
-      <sheetName val="Bardzka - PORR GW"/>
-      <sheetName val="Bardzka  - CONTRACT SIGNEDv2"/>
-      <sheetName val="Bardzka  - CONTRACT SIGNED"/>
-      <sheetName val="Pohoskiego - kody I"/>
-      <sheetName val="Pohoskiego - contract signedv2"/>
-      <sheetName val="Pohoskiego - contract signed"/>
-      <sheetName val="Pohoskiego - zabezpieczenie wyk"/>
-      <sheetName val="Pohoskiego SS"/>
-      <sheetName val="Pohoskiego - windy"/>
-      <sheetName val="Pohoskiego - przylacza2"/>
-      <sheetName val="Pohoskiego - przylacza"/>
-      <sheetName val="Pohoskiego okna"/>
-      <sheetName val="Pohoskiego - drzwi"/>
-      <sheetName val="Pohoskiego - portale"/>
-      <sheetName val="Pohoskiego okna - an1"/>
-      <sheetName val="Pohoskiego - elektryka"/>
-      <sheetName val="Pohoskiego - instalacje sanitar"/>
-      <sheetName val="Pohoskiego - i sanitarne 2"/>
-      <sheetName val="Pohoskiego - elektryka an1"/>
-      <sheetName val="Pohoskiego - wezel"/>
-      <sheetName val="Pohoskiego - pzt"/>
-      <sheetName val="Pohoskiego roboty wykończeniowe"/>
-      <sheetName val="Romanowicza zabezpieczenie"/>
-      <sheetName val="Romanowicza - Express SS"/>
-      <sheetName val="Romanowicza - windy"/>
-      <sheetName val="Romanowicza - Express an1"/>
-      <sheetName val="Romanowicza - domofony"/>
-      <sheetName val="Romanowicza - MGBuilding"/>
-      <sheetName val="Romanowicza - MGBuilding2"/>
-      <sheetName val="Romanowicza - wykopy"/>
-      <sheetName val="Romanowicza Express an 3"/>
-      <sheetName val="Dmowskiego - Etap 1 Kody I"/>
-      <sheetName val="Dmowskiego - Etap 2 Kody I"/>
-      <sheetName val="Jana Pawła- KODY I "/>
-      <sheetName val="Jana Pawła - windy"/>
-      <sheetName val="Stocznia - SS"/>
-      <sheetName val="Stocznia - ściany szczelin A2"/>
-      <sheetName val="Stocznia - windy"/>
-      <sheetName val="Stocznia - GW"/>
-      <sheetName val="Stocznia badania archeologiczne"/>
-      <sheetName val="Stocznia - roboty ziemne"/>
-      <sheetName val="Stocznia - domofony"/>
-      <sheetName val="Stocznia - ściany szczeli A1"/>
-      <sheetName val="Stocznia - windy a1"/>
-      <sheetName val="Stocznia - przylacza"/>
-      <sheetName val="Stocznia Remediacja A1"/>
-      <sheetName val="Stocznia Remediacja"/>
-      <sheetName val="Stocznia - ogrodzenie"/>
-      <sheetName val="Stocznia - contract signedv2"/>
-      <sheetName val="Stocznia - contract signed"/>
-      <sheetName val="Romanowicza - contract signedv2"/>
-      <sheetName val="Romanowicza - contract signed"/>
-      <sheetName val="Stocznia - Keller"/>
-      <sheetName val="Brnenska - zasilanie placu budo"/>
-      <sheetName val="Brnenska - zabezpieczenia wykop"/>
-      <sheetName val="Brnenska adm an3"/>
-      <sheetName val="Brnenska adm an2"/>
-      <sheetName val="Brnenska adm an1"/>
-      <sheetName val="Brnenska adm"/>
-      <sheetName val="Brnenska kobi an1"/>
-      <sheetName val="Brnenska kobi"/>
-      <sheetName val="Brnenska wer dom an 2"/>
-      <sheetName val="Brnenska wer dom an 1"/>
-      <sheetName val="Brnenska wer dom"/>
-      <sheetName val="Brnenska szajowski an1"/>
-      <sheetName val="Brnenska szajowski"/>
-      <sheetName val="Brnenska SS"/>
-      <sheetName val="Brneńska przyłącza 4"/>
-      <sheetName val="Brneńska przyłącza"/>
-      <sheetName val="Brneńska przyłącza2"/>
-      <sheetName val="Brnenska - windy"/>
-      <sheetName val="Brneńska okna"/>
-      <sheetName val="Brneńska - sanitarne2"/>
-      <sheetName val="Brneńska - elektryka2"/>
-      <sheetName val="Brneńska - elew"/>
-      <sheetName val="Brneńska - wyk2"/>
-      <sheetName val="Brnenska - drzwi stalowe"/>
-      <sheetName val="Brnenska - witryny2"/>
-      <sheetName val="Brnenska - zabydowy meblowe2"/>
-      <sheetName val="Brneńska - bramy"/>
-      <sheetName val="Brneńska - drzwi2"/>
-      <sheetName val="Brneńska portale 2"/>
-      <sheetName val="Brneńska - żywica"/>
-      <sheetName val="Brneńska - domofony"/>
-      <sheetName val="Brneńska - droga"/>
-      <sheetName val="Brneńska - balustrady"/>
-      <sheetName val="Brneńska - podnosnik"/>
-      <sheetName val="Brneńska - wyk 3"/>
-      <sheetName val="Brneńska - elektryka"/>
-      <sheetName val="Brneńska - sanitarne3"/>
-      <sheetName val="Brneńska - wyk"/>
-      <sheetName val="Brneńska przyłącza3"/>
-      <sheetName val="Brneńska - drogaa"/>
-      <sheetName val="Brnenska -dfa"/>
-      <sheetName val="Brnenska - witryny"/>
-      <sheetName val="Brneńska portale"/>
-      <sheetName val="Brneńska - drzwi"/>
-      <sheetName val="Brnenska - zabydowy meblowe"/>
-      <sheetName val="Brneńska SS"/>
-      <sheetName val="Brneńska skrzynki na listy"/>
-      <sheetName val="Brneńska - master key"/>
-      <sheetName val="Brneńska - sanitarne"/>
-      <sheetName val="Brneńska siw"/>
-      <sheetName val="Brnenska - mur oporowy2"/>
-      <sheetName val="Brneńska - mur oporowy"/>
-      <sheetName val="Brneńska S0"/>
-      <sheetName val="Brnenska - geoprojekt"/>
-      <sheetName val="Jana Pawła - TES (4)"/>
-      <sheetName val="Jana Pawła - Oferta stan zero"/>
-      <sheetName val="Jana Pawła - Oferta nadziemie"/>
-      <sheetName val="Jana Pawła - deweloperski (4)"/>
-      <sheetName val="Jana Pawła - Drogi i Zieleń"/>
-      <sheetName val="Jana Pawła - Instalacje san"/>
-      <sheetName val="Jana Pawła - Inst.elektr."/>
-      <sheetName val="Zielony Politechnika Kody I"/>
-      <sheetName val="Zielony Zatoka Kody I"/>
-      <sheetName val="Zielony Trojkąt - rozbiorki"/>
-      <sheetName val="Zielony Trojkąt - windy2"/>
-      <sheetName val="Zielony Trojkąt - SS"/>
-      <sheetName val="Zielony Trojkąt - SS3"/>
-      <sheetName val="Zielony Trojkąt - SS2"/>
-      <sheetName val="Zielony Trojkąt - windy"/>
-      <sheetName val="Zielony Trojkąt - okna"/>
-      <sheetName val="Zielony Trojkąt - zasilanie pla"/>
-      <sheetName val="Zielony Trojkąt - przyl dla bud"/>
-      <sheetName val="Zielony Trojkąt - remediacja"/>
-      <sheetName val="Zielony Trojkąt - mury dzialowe"/>
-      <sheetName val="Zielony Trojkąt - mury"/>
-      <sheetName val="Zielony Trojkąt - sanitarne"/>
-      <sheetName val="Zielony Trojkat - budget"/>
-      <sheetName val="Curtis - Kody I"/>
-      <sheetName val="Opaczewska - Kody I"/>
-      <sheetName val="Brnenska - wyk2"/>
-      <sheetName val="Brnenska - wyk"/>
-      <sheetName val="Brnenska - contract signedv2"/>
-      <sheetName val="Brnenska - contract signed"/>
-      <sheetName val="R4R"/>
-      <sheetName val="Wykończenie budowlane"/>
-      <sheetName val="Stan surowy"/>
-      <sheetName val="EC - ROMANOWICZA"/>
-      <sheetName val="EC - STOCZNIA"/>
-      <sheetName val="EC - BRNEŃSKA"/>
-      <sheetName val="EC - POHOSKIEGO"/>
-      <sheetName val="EC - BARDZKA"/>
-      <sheetName val="EC - JANA PAWŁA"/>
-      <sheetName val="Opaczewska - keller"/>
-      <sheetName val="Bardzka - Kody I"/>
-      <sheetName val="udział SS do N03 - umowy"/>
-      <sheetName val="udział SS do N03 - wyceny"/>
-      <sheetName val="Park zachod budget in progress"/>
-      <sheetName val="Jaworska budget in progress"/>
-      <sheetName val="Kilińskiego budget in progress"/>
-      <sheetName val="Park Zachodni - umowy"/>
-      <sheetName val="Kilińskiego - umowy"/>
-      <sheetName val="Jaworska 2 - umowy"/>
-      <sheetName val="Windy zakupy centralne"/>
-      <sheetName val="Zielony T - Budmar"/>
-      <sheetName val="Stocznia - Promonte"/>
-      <sheetName val="Jana Pawła - Expres"/>
-      <sheetName val="Pohoskiego PRIŻ"/>
-      <sheetName val="Pohoskiego CONSTEEL"/>
-      <sheetName val="Brneńska ERBUD"/>
-      <sheetName val="Brneńska WIPEN"/>
-      <sheetName val="Brneńska GGTS"/>
-      <sheetName val="Romanowicza Aarsleff"/>
-      <sheetName val="Romanowicza Expres"/>
-      <sheetName val="Porównanie - WYCENY"/>
-      <sheetName val="Zielony T Politechnika Kody I"/>
-      <sheetName val="Zielony T Zatoka Kody I"/>
-      <sheetName val="Dmowskiego Etap 2 Kody I"/>
-      <sheetName val="Dmowskiego Etap 1 Kody I"/>
-      <sheetName val="Dmowskiego E1 + E2 Wycena szac"/>
-      <sheetName val="Jana Pawła - KODY I"/>
-      <sheetName val="Jana Pawła - Szczegóły"/>
-      <sheetName val="Pohoskiego - Szczegóły"/>
-      <sheetName val="Brneńska - Kody I"/>
-      <sheetName val="Brneńska - Szczegóły"/>
-      <sheetName val="Stocznia - Kody I"/>
-      <sheetName val="Romanowicza - Szczegóły"/>
-      <sheetName val="Romanowicza - Kody I"/>
+      <sheetName val="Wycena DmowskieR4R_C"/>
+      <sheetName val="Wycena DmowskieR4R_AB"/>
+      <sheetName val="dane pow"/>
+      <sheetName val="wyk sanitarne bud C"/>
+      <sheetName val="wyk sanitarne bud A-B"/>
+      <sheetName val="bilanse"/>
+      <sheetName val="analiza - SW"/>
+      <sheetName val="KA"/>
+      <sheetName val="Powierzchnie E1"/>
+      <sheetName val="nowe dane E1"/>
+      <sheetName val="Etap 1 Kody I"/>
+      <sheetName val="Etap 1 Wycena szacunkowa"/>
+      <sheetName val="Etap 1 Koszty budowy"/>
+      <sheetName val="Etap 1 Szczegóły"/>
+      <sheetName val="Arkusz1"/>
+      <sheetName val="Etap 1 Powierzchnie"/>
+      <sheetName val="wyk sanitarne E1"/>
+      <sheetName val="wyk elektryczne E1"/>
+      <sheetName val="Powierzchnie E2"/>
+      <sheetName val="Etap 2 Kody I"/>
+      <sheetName val="EC E1"/>
+      <sheetName val="EC E2"/>
+      <sheetName val="Sumarycznie"/>
+      <sheetName val="Etap 2 Wycena szacunkowa"/>
+      <sheetName val="Etap 2 Szczegóły"/>
+      <sheetName val="Etap 2 Powierzchnie"/>
+      <sheetName val="dane etap 2"/>
+      <sheetName val="wyk sanitarne E2"/>
+      <sheetName val="wyk elektryczne E2"/>
+      <sheetName val="Etap 2 Koszty budowy"/>
+      <sheetName val="E1 + E2 Wycena szacunkowa"/>
+      <sheetName val="Zestawienie powierzchni-poprzed"/>
+      <sheetName val="Podsumowanie"/>
+      <sheetName val="sieci sanitarne"/>
+      <sheetName val="kotłownia"/>
+      <sheetName val="Pomocnicza"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -546,12 +398,242 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="10">
+          <cell r="FR10">
+            <v>5836.57</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="FR12">
+            <v>3587</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="FR13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="FR14">
+            <v>1896</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="FR16">
+            <v>1878.38</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="FR17">
+            <v>347.62</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="FR20">
+            <v>1691</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="FR22">
+            <v>3393</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="FR23">
+            <v>14219.550000000001</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="FR26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="FR30">
+            <v>418.4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="FR31">
+            <v>10446.150000000001</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="FR35">
+            <v>3355</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="FR39">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="FR40">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="FR41">
+            <v>339</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="FR45">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="FR47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="FT51">
+            <v>552337.33171546552</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="FS62">
+            <v>7030.9684526646824</v>
+          </cell>
+          <cell r="FT62">
+            <v>76388308.302398086</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="FT63">
+            <v>2248325.39</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="FT67">
+            <v>997919.99999999988</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="FT70">
+            <v>3393000</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="FT71">
+            <v>3731193.8804000001</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="FT72">
+            <v>251090</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="FT77">
+            <v>15352729.390000002</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="FT83">
+            <v>8613910.9945999999</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="FT104">
+            <v>1786356.6</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="FT113">
+            <v>1357200</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="FT122">
+            <v>10074709.354999997</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="FT152">
+            <v>1175000</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="FT157">
+            <v>8142338.2599999998</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="FT170">
+            <v>3089198</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="FT182">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="FT189">
+            <v>4663632.8281032117</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="FT199">
+            <v>2313666.3263797443</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="FT229">
+            <v>1140740</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="FT238">
+            <v>115348.54999999999</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="FT247">
+            <v>237052.59999999995</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="FT255">
+            <v>2136182.7949694078</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="FT268">
+            <v>62450</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="FT273">
+            <v>3246587.9503836958</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="FT285">
+            <v>594181.50917229906</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="FT287">
+            <v>2663413.8733897191</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
+      <sheetData sheetId="24">
+        <row r="87">
+          <cell r="GH87">
+            <v>11936.43721</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
@@ -563,325 +645,6 @@
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-      <sheetData sheetId="124"/>
-      <sheetData sheetId="125"/>
-      <sheetData sheetId="126"/>
-      <sheetData sheetId="127"/>
-      <sheetData sheetId="128"/>
-      <sheetData sheetId="129"/>
-      <sheetData sheetId="130"/>
-      <sheetData sheetId="131"/>
-      <sheetData sheetId="132"/>
-      <sheetData sheetId="133"/>
-      <sheetData sheetId="134"/>
-      <sheetData sheetId="135"/>
-      <sheetData sheetId="136"/>
-      <sheetData sheetId="137"/>
-      <sheetData sheetId="138"/>
-      <sheetData sheetId="139"/>
-      <sheetData sheetId="140">
-        <row r="4">
-          <cell r="O4">
-            <v>3424</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="O5">
-            <v>709.75</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="O6">
-            <v>815</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="O12">
-            <v>815</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="O13">
-            <v>10439.269999999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="O14">
-            <v>8179.3799999999992</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="O15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="O16">
-            <v>8179.3799999999992</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="O21">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="O22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="O23">
-            <v>283</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="O32">
-            <v>60000</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="O43">
-            <v>49500425.507282011</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="O45">
-            <v>360110.00799999997</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="O46">
-            <v>129600</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="O50">
-            <v>1680710.58038264</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="O51">
-            <v>1310570.0434726416</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="O52">
-            <v>10564070.756622612</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="O53">
-            <v>5445201.6796182012</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="O54">
-            <v>1245665.1108137181</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="O55">
-            <v>238630.32105175586</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="O56">
-            <v>9295885.167720465</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="O58">
-            <v>871310.00000000012</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="O60">
-            <v>6412317.7369045932</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="O61">
-            <v>2117531.2459094571</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="O62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="O63">
-            <v>3434855.2912000008</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="O64">
-            <v>2990955.4448000002</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="O65">
-            <v>529564.62078593671</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="O66">
-            <v>73371.5</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="O67">
-            <v>84674.5</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="O68">
-            <v>837680.5</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="O69">
-            <v>1622950</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="O70">
-            <v>254771</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="141"/>
-      <sheetData sheetId="142"/>
-      <sheetData sheetId="143"/>
-      <sheetData sheetId="144"/>
-      <sheetData sheetId="145"/>
-      <sheetData sheetId="146"/>
-      <sheetData sheetId="147"/>
-      <sheetData sheetId="148"/>
-      <sheetData sheetId="149"/>
-      <sheetData sheetId="150"/>
-      <sheetData sheetId="151"/>
-      <sheetData sheetId="152"/>
-      <sheetData sheetId="153"/>
-      <sheetData sheetId="154"/>
-      <sheetData sheetId="155"/>
-      <sheetData sheetId="156"/>
-      <sheetData sheetId="157"/>
-      <sheetData sheetId="158"/>
-      <sheetData sheetId="159"/>
-      <sheetData sheetId="160"/>
-      <sheetData sheetId="161"/>
-      <sheetData sheetId="162"/>
-      <sheetData sheetId="163"/>
-      <sheetData sheetId="164"/>
-      <sheetData sheetId="165"/>
-      <sheetData sheetId="166"/>
-      <sheetData sheetId="167"/>
-      <sheetData sheetId="168"/>
-      <sheetData sheetId="169"/>
-      <sheetData sheetId="170"/>
-      <sheetData sheetId="171"/>
-      <sheetData sheetId="172"/>
-      <sheetData sheetId="173"/>
-      <sheetData sheetId="174"/>
-      <sheetData sheetId="175"/>
-      <sheetData sheetId="176"/>
-      <sheetData sheetId="177"/>
-      <sheetData sheetId="178"/>
-      <sheetData sheetId="179"/>
-      <sheetData sheetId="180"/>
-      <sheetData sheetId="181"/>
-      <sheetData sheetId="182"/>
-      <sheetData sheetId="183"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1207,24 +970,24 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1240,470 +1003,476 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <f>[1]R4R!O43/[1]R4R!O16</f>
-        <v>6051.855459372473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FS62</f>
+        <v>7030.9684526646824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6">
-        <f>[1]R4R!O4</f>
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR10</f>
+        <v>5836.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="6">
-        <f>[1]R4R!O5</f>
-        <v>709.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR14</f>
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="6">
-        <f>[1]R4R!O6</f>
-        <v>815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR12</f>
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="6">
-        <v>709.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <f>B6-B7</f>
-        <v>2714.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR10-'[1]Etap 2 Kody I'!FR14</f>
+        <v>3940.5699999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR16+'[1]Etap 2 Kody I'!FR17+'[1]Etap 2 Kody I'!FR20</f>
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>8992.8556599999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Szczegóły'!GH87</f>
+        <v>11936.43721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
         <f>B14+B15</f>
-        <v>11254.269999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17612.550000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <f>[1]R4R!O12</f>
-        <v>815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR22</f>
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6">
-        <f>[1]R4R!O13</f>
-        <v>10439.269999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR23</f>
+        <v>14219.550000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6">
         <f>B17+B18</f>
-        <v>8179.3799999999992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10864.550000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="6">
-        <f>[1]R4R!O14</f>
-        <v>8179.3799999999992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR31</f>
+        <v>10446.150000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <f>[1]R4R!O15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR30</f>
+        <v>418.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6">
-        <f>B15-B17-B18</f>
-        <v>2259.8899999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR35</f>
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6">
+        <f>'[1]Etap 2 Kody I'!FR26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR40</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="6">
-        <f>[1]R4R!O21</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR45</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="6">
-        <f>[1]R4R!O22</f>
+        <f>'[1]Etap 2 Kody I'!FR47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="6">
-        <f>[1]R4R!O23</f>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FR41</f>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="6">
         <f>B17/B25</f>
-        <v>28.90240282685512</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30.814601769911508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="6">
         <f>B19/B15</f>
-        <v>0.21647969637723707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.23594276893431929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="6">
         <f>B14/B16</f>
-        <v>9.964080407072419E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.31230009526395475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="6">
-        <f>[1]R4R!O32</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT51</f>
+        <v>552337.33171546552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="6">
-        <f>[1]R4R!O43</f>
-        <v>49500425.507282011</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT62</f>
+        <v>76388308.302398086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="6">
-        <f>[1]R4R!O45</f>
-        <v>360110.00799999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT63-B32</f>
+        <v>1250405.3900000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="6">
-        <f>[1]R4R!O46</f>
-        <v>129600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT67</f>
+        <v>997919.99999999988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="6">
-        <f>[1]R4R!O48</f>
+        <f>'[1]Etap 2 Kody I'!FT75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="6">
-        <f>[1]R4R!O49</f>
+        <f>'[1]Etap 2 Kody I'!FT73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="6">
-        <f>[1]R4R!O50</f>
-        <v>1680710.58038264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT71+'[1]Etap 2 Kody I'!FT72</f>
+        <v>3982283.8804000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="6">
-        <f>[1]R4R!O51</f>
-        <v>1310570.0434726416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT70</f>
+        <v>3393000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="6">
-        <f>[1]R4R!O52</f>
-        <v>10564070.756622612</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT77</f>
+        <v>15352729.390000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="6">
-        <f>[1]R4R!O53</f>
-        <v>5445201.6796182012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT83</f>
+        <v>8613910.9945999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="6">
-        <f>[1]R4R!O54</f>
-        <v>1245665.1108137181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT104</f>
+        <v>1786356.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="6">
-        <f>[1]R4R!O55</f>
-        <v>238630.32105175586</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT113</f>
+        <v>1357200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="6">
-        <f>[1]R4R!O56</f>
-        <v>9295885.167720465</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT122</f>
+        <v>10074709.354999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="6">
-        <f>[1]R4R!O58</f>
-        <v>871310.00000000012</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT152-B43</f>
+        <v>1175000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="6">
-        <f>[1]R4R!O59</f>
+        <f>'[1]Etap 2 Kody I'!FT156</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="6">
-        <f>[1]R4R!O60</f>
-        <v>6412317.7369045932</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT157</f>
+        <v>8142338.2599999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="6">
-        <f>[1]R4R!O61</f>
-        <v>2117531.2459094571</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT170</f>
+        <v>3089198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="6">
-        <f>[1]R4R!O62</f>
+        <f>'[1]Etap 2 Kody I'!FT182</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="6">
-        <f>[1]R4R!O63</f>
-        <v>3434855.2912000008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT189</f>
+        <v>4663632.8281032117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="6">
-        <f>[1]R4R!O64</f>
-        <v>2990955.4448000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT199</f>
+        <v>2313666.3263797443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="6">
-        <f>[1]R4R!O65</f>
-        <v>529564.62078593671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT229+'[1]Etap 2 Kody I'!FT268</f>
+        <v>1203190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="6">
-        <f>[1]R4R!O66</f>
-        <v>73371.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT238</f>
+        <v>115348.54999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="6">
-        <f>[1]R4R!O67</f>
-        <v>84674.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT247</f>
+        <v>237052.59999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="6">
-        <f>[1]R4R!O68</f>
-        <v>837680.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT255</f>
+        <v>2136182.7949694078</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="6">
-        <f>[1]R4R!O69</f>
-        <v>1622950</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT273</f>
+        <v>3246587.9503836958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="6">
-        <f>[1]R4R!O70</f>
-        <v>254771</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <f>'[1]Etap 2 Kody I'!FT285</f>
+        <v>594181.50917229906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="6">
-        <f>[1]R4R!O71</f>
-        <v>0</v>
+        <f>'[1]Etap 2 Kody I'!FT287</f>
+        <v>2663413.8733897191</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8AF8F5C0-A843-6148-B74C-8CC6B4C166F3}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8B5C678A-8488-447A-A37D-30BACDAEEEE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1717,9 +1486,9 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>

--- a/public/dataTable.xlsx
+++ b/public/dataTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotawski\Coding\estimationCenter\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotawski\Coding\EC\estimation_center\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C0664-5DDD-4E98-8BBC-C912C3C2C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28C579-C358-42A7-83B2-5B69EE9B6364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F53F1143-5114-4282-8AF3-5DBDBA634C13}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Nazwa</t>
   </si>
@@ -218,13 +218,10 @@
     <t>liczba kondygnacji nadziemnych</t>
   </si>
   <si>
-    <t>Poznań</t>
-  </si>
-  <si>
-    <t>Wycena</t>
-  </si>
-  <si>
-    <t>Dmowskiego E2</t>
+    <t>Pohoskiego</t>
+  </si>
+  <si>
+    <t>Zakończono</t>
   </si>
 </sst>
 </file>
@@ -341,42 +338,190 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Wycena DmowskieR4R_C"/>
-      <sheetName val="Wycena DmowskieR4R_AB"/>
-      <sheetName val="dane pow"/>
-      <sheetName val="wyk sanitarne bud C"/>
-      <sheetName val="wyk sanitarne bud A-B"/>
-      <sheetName val="bilanse"/>
-      <sheetName val="analiza - SW"/>
-      <sheetName val="KA"/>
-      <sheetName val="Powierzchnie E1"/>
-      <sheetName val="nowe dane E1"/>
-      <sheetName val="Etap 1 Kody I"/>
-      <sheetName val="Etap 1 Wycena szacunkowa"/>
-      <sheetName val="Etap 1 Koszty budowy"/>
-      <sheetName val="Etap 1 Szczegóły"/>
-      <sheetName val="Arkusz1"/>
-      <sheetName val="Etap 1 Powierzchnie"/>
-      <sheetName val="wyk sanitarne E1"/>
-      <sheetName val="wyk elektryczne E1"/>
-      <sheetName val="Powierzchnie E2"/>
-      <sheetName val="Etap 2 Kody I"/>
-      <sheetName val="EC E1"/>
-      <sheetName val="EC E2"/>
-      <sheetName val="Sumarycznie"/>
-      <sheetName val="Etap 2 Wycena szacunkowa"/>
-      <sheetName val="Etap 2 Szczegóły"/>
-      <sheetName val="Etap 2 Powierzchnie"/>
-      <sheetName val="dane etap 2"/>
-      <sheetName val="wyk sanitarne E2"/>
-      <sheetName val="wyk elektryczne E2"/>
-      <sheetName val="Etap 2 Koszty budowy"/>
-      <sheetName val="E1 + E2 Wycena szacunkowa"/>
-      <sheetName val="Zestawienie powierzchni-poprzed"/>
-      <sheetName val="Podsumowanie"/>
-      <sheetName val="sieci sanitarne"/>
-      <sheetName val="kotłownia"/>
-      <sheetName val="Pomocnicza"/>
+      <sheetName val="Dmowskiego - Etap 2 Szczegóły"/>
+      <sheetName val="Dmowskiego - Etap 1 Szczegóły"/>
+      <sheetName val="Bardzka - wycinki"/>
+      <sheetName val="Bardzka - ektryczna"/>
+      <sheetName val="Bardzka - PORR GW"/>
+      <sheetName val="Bardzka  - CONTRACT SIGNEDv2"/>
+      <sheetName val="Bardzka  - CONTRACT SIGNED"/>
+      <sheetName val="Pohoskiego - kody I"/>
+      <sheetName val="Pohoskiego - contract signedv2"/>
+      <sheetName val="Pohoskiego - contract signed"/>
+      <sheetName val="Pohoskiego - zabezpieczenie wyk"/>
+      <sheetName val="Pohoskiego SS"/>
+      <sheetName val="Pohoskiego - windy"/>
+      <sheetName val="Pohoskiego - przylacza2"/>
+      <sheetName val="Pohoskiego - przylacza"/>
+      <sheetName val="Pohoskiego okna"/>
+      <sheetName val="Pohoskiego - drzwi"/>
+      <sheetName val="Pohoskiego - portale"/>
+      <sheetName val="Pohoskiego okna - an1"/>
+      <sheetName val="Pohoskiego - elektryka"/>
+      <sheetName val="Pohoskiego - instalacje sanitar"/>
+      <sheetName val="Pohoskiego - i sanitarne 2"/>
+      <sheetName val="Pohoskiego - elektryka an1"/>
+      <sheetName val="Pohoskiego - wezel"/>
+      <sheetName val="Pohoskiego - pzt"/>
+      <sheetName val="Pohoskiego roboty wykończeniowe"/>
+      <sheetName val="Romanowicza zabezpieczenie"/>
+      <sheetName val="Romanowicza - Express SS"/>
+      <sheetName val="Romanowicza - windy"/>
+      <sheetName val="Romanowicza - Express an1"/>
+      <sheetName val="Romanowicza - domofony"/>
+      <sheetName val="Romanowicza - MGBuilding"/>
+      <sheetName val="Romanowicza - MGBuilding2"/>
+      <sheetName val="Romanowicza - wykopy"/>
+      <sheetName val="Romanowicza Express an 3"/>
+      <sheetName val="Dmowskiego - Etap 1 Kody I"/>
+      <sheetName val="Dmowskiego - Etap 2 Kody I"/>
+      <sheetName val="Jana Pawła- KODY I "/>
+      <sheetName val="Jana Pawła - windy"/>
+      <sheetName val="Stocznia - SS"/>
+      <sheetName val="Stocznia - ściany szczelin A2"/>
+      <sheetName val="Stocznia - windy"/>
+      <sheetName val="Stocznia - GW"/>
+      <sheetName val="Stocznia badania archeologiczne"/>
+      <sheetName val="Stocznia - roboty ziemne"/>
+      <sheetName val="Stocznia - domofony"/>
+      <sheetName val="Stocznia - ściany szczeli A1"/>
+      <sheetName val="Stocznia - windy a1"/>
+      <sheetName val="Stocznia - przylacza"/>
+      <sheetName val="Stocznia Remediacja A1"/>
+      <sheetName val="Stocznia Remediacja"/>
+      <sheetName val="Stocznia - ogrodzenie"/>
+      <sheetName val="Stocznia - contract signedv2"/>
+      <sheetName val="Stocznia - contract signed"/>
+      <sheetName val="Romanowicza - contract signedv2"/>
+      <sheetName val="Romanowicza - contract signed"/>
+      <sheetName val="Stocznia - Keller"/>
+      <sheetName val="Brnenska - zasilanie placu budo"/>
+      <sheetName val="Brnenska - zabezpieczenia wykop"/>
+      <sheetName val="Brnenska adm an3"/>
+      <sheetName val="Brnenska adm an2"/>
+      <sheetName val="Brnenska adm an1"/>
+      <sheetName val="Brnenska adm"/>
+      <sheetName val="Brnenska kobi an1"/>
+      <sheetName val="Brnenska kobi"/>
+      <sheetName val="Brnenska wer dom an 2"/>
+      <sheetName val="Brnenska wer dom an 1"/>
+      <sheetName val="Brnenska wer dom"/>
+      <sheetName val="Brnenska szajowski an1"/>
+      <sheetName val="Brnenska szajowski"/>
+      <sheetName val="Brnenska SS"/>
+      <sheetName val="Brneńska przyłącza 4"/>
+      <sheetName val="Brneńska przyłącza"/>
+      <sheetName val="Brneńska przyłącza2"/>
+      <sheetName val="Brnenska - windy"/>
+      <sheetName val="Brneńska okna"/>
+      <sheetName val="Brneńska - sanitarne2"/>
+      <sheetName val="Brneńska - elektryka2"/>
+      <sheetName val="Brneńska - elew"/>
+      <sheetName val="Brneńska - wyk2"/>
+      <sheetName val="Brnenska - drzwi stalowe"/>
+      <sheetName val="Brnenska - witryny2"/>
+      <sheetName val="Brnenska - zabydowy meblowe2"/>
+      <sheetName val="Brneńska - bramy"/>
+      <sheetName val="Brneńska - drzwi2"/>
+      <sheetName val="Brneńska portale 2"/>
+      <sheetName val="Brneńska - żywica"/>
+      <sheetName val="Brneńska - domofony"/>
+      <sheetName val="Brneńska - droga"/>
+      <sheetName val="Brneńska - balustrady"/>
+      <sheetName val="Brneńska - podnosnik"/>
+      <sheetName val="Brneńska - wyk 3"/>
+      <sheetName val="Brneńska - elektryka"/>
+      <sheetName val="Brneńska - sanitarne3"/>
+      <sheetName val="Brneńska - wyk"/>
+      <sheetName val="Brneńska przyłącza3"/>
+      <sheetName val="Brneńska - drogaa"/>
+      <sheetName val="Brnenska -dfa"/>
+      <sheetName val="Brnenska - witryny"/>
+      <sheetName val="Brneńska portale"/>
+      <sheetName val="Brneńska - drzwi"/>
+      <sheetName val="Brnenska - zabydowy meblowe"/>
+      <sheetName val="Brneńska SS"/>
+      <sheetName val="Brneńska skrzynki na listy"/>
+      <sheetName val="Brneńska - master key"/>
+      <sheetName val="Brneńska - sanitarne"/>
+      <sheetName val="Brneńska siw"/>
+      <sheetName val="Brnenska - mur oporowy2"/>
+      <sheetName val="Brneńska - mur oporowy"/>
+      <sheetName val="Brneńska S0"/>
+      <sheetName val="Brnenska - geoprojekt"/>
+      <sheetName val="Jana Pawła - TES (4)"/>
+      <sheetName val="Jana Pawła - Oferta stan zero"/>
+      <sheetName val="Jana Pawła - Oferta nadziemie"/>
+      <sheetName val="Jana Pawła - deweloperski (4)"/>
+      <sheetName val="Jana Pawła - Drogi i Zieleń"/>
+      <sheetName val="Jana Pawła - Instalacje san"/>
+      <sheetName val="Jana Pawła - Inst.elektr."/>
+      <sheetName val="Zielony Politechnika Kody I"/>
+      <sheetName val="Zielony Zatoka Kody I"/>
+      <sheetName val="Zielony Trojkąt - rozbiorki"/>
+      <sheetName val="Zielony Trojkąt - windy2"/>
+      <sheetName val="Zielony Trojkąt - SS"/>
+      <sheetName val="Zielony Trojkąt - SS3"/>
+      <sheetName val="Zielony Trojkąt - SS2"/>
+      <sheetName val="Zielony Trojkąt - windy"/>
+      <sheetName val="Zielony Trojkąt - okna"/>
+      <sheetName val="Zielony Trojkąt - zasilanie pla"/>
+      <sheetName val="Zielony Trojkąt - przyl dla bud"/>
+      <sheetName val="Zielony Trojkąt - remediacja"/>
+      <sheetName val="Zielony Trojkąt - mury dzialowe"/>
+      <sheetName val="Zielony Trojkąt - mury"/>
+      <sheetName val="Zielony Trojkąt - sanitarne"/>
+      <sheetName val="Zielony Trojkat - budget"/>
+      <sheetName val="Curtis - Kody I"/>
+      <sheetName val="Opaczewska - Kody I"/>
+      <sheetName val="Brnenska - wyk2"/>
+      <sheetName val="Brnenska - wyk"/>
+      <sheetName val="Brnenska - contract signedv2"/>
+      <sheetName val="Brnenska - contract signed"/>
+      <sheetName val="R4R"/>
+      <sheetName val="Wykończenie budowlane"/>
+      <sheetName val="Stan surowy"/>
+      <sheetName val="EC - ROMANOWICZA"/>
+      <sheetName val="EC - STOCZNIA"/>
+      <sheetName val="EC - BRNEŃSKA"/>
+      <sheetName val="EC - POHOSKIEGO"/>
+      <sheetName val="EC - BARDZKA"/>
+      <sheetName val="EC - JANA PAWŁA"/>
+      <sheetName val="Opaczewska - keller"/>
+      <sheetName val="Bardzka - Kody I"/>
+      <sheetName val="udział SS do N03 - umowy"/>
+      <sheetName val="udział SS do N03 - wyceny"/>
+      <sheetName val="Park zachod budget in progress"/>
+      <sheetName val="Jaworska budget in progress"/>
+      <sheetName val="Kilińskiego budget in progress"/>
+      <sheetName val="Park Zachodni - umowy"/>
+      <sheetName val="Kilińskiego - umowy"/>
+      <sheetName val="Jaworska 2 - umowy"/>
+      <sheetName val="Windy zakupy centralne"/>
+      <sheetName val="Zielony T - Budmar"/>
+      <sheetName val="Stocznia - Promonte"/>
+      <sheetName val="Jana Pawła - Expres"/>
+      <sheetName val="Pohoskiego PRIŻ"/>
+      <sheetName val="Pohoskiego CONSTEEL"/>
+      <sheetName val="Brneńska ERBUD"/>
+      <sheetName val="Brneńska WIPEN"/>
+      <sheetName val="Brneńska GGTS"/>
+      <sheetName val="Romanowicza Aarsleff"/>
+      <sheetName val="Romanowicza Expres"/>
+      <sheetName val="Porównanie - WYCENY"/>
+      <sheetName val="Zielony T Politechnika Kody I"/>
+      <sheetName val="Zielony T Zatoka Kody I"/>
+      <sheetName val="Dmowskiego Etap 2 Kody I"/>
+      <sheetName val="Dmowskiego Etap 1 Kody I"/>
+      <sheetName val="Dmowskiego E1 + E2 Wycena szac"/>
+      <sheetName val="Jana Pawła - KODY I"/>
+      <sheetName val="Jana Pawła - Szczegóły"/>
+      <sheetName val="Pohoskiego - Szczegóły"/>
+      <sheetName val="Brneńska - Kody I"/>
+      <sheetName val="Brneńska - Szczegóły"/>
+      <sheetName val="Stocznia - Kody I"/>
+      <sheetName val="Romanowicza - Szczegóły"/>
+      <sheetName val="Romanowicza - Kody I"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -398,242 +543,12 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="10">
-          <cell r="FR10">
-            <v>5836.57</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="FR12">
-            <v>3587</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="FR13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="FR14">
-            <v>1896</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="FR16">
-            <v>1878.38</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="FR17">
-            <v>347.62</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="FR20">
-            <v>1691</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="FR22">
-            <v>3393</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="FR23">
-            <v>14219.550000000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="FR26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="FR30">
-            <v>418.4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="FR31">
-            <v>10446.150000000001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="FR35">
-            <v>3355</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="FR39">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="FR40">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="FR41">
-            <v>339</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="FR45">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="FR47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="FT51">
-            <v>552337.33171546552</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="FS62">
-            <v>7030.9684526646824</v>
-          </cell>
-          <cell r="FT62">
-            <v>76388308.302398086</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="FT63">
-            <v>2248325.39</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="FT67">
-            <v>997919.99999999988</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="FT70">
-            <v>3393000</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="FT71">
-            <v>3731193.8804000001</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="FT72">
-            <v>251090</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="FT77">
-            <v>15352729.390000002</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="FT83">
-            <v>8613910.9945999999</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="FT104">
-            <v>1786356.6</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="FT113">
-            <v>1357200</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="FT122">
-            <v>10074709.354999997</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="FT152">
-            <v>1175000</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="FT157">
-            <v>8142338.2599999998</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="FT170">
-            <v>3089198</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="FT182">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="FT189">
-            <v>4663632.8281032117</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="FT199">
-            <v>2313666.3263797443</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="FT229">
-            <v>1140740</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="FT238">
-            <v>115348.54999999999</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="FT247">
-            <v>237052.59999999995</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="FT255">
-            <v>2136182.7949694078</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="FT268">
-            <v>62450</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="FT273">
-            <v>3246587.9503836958</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="FT285">
-            <v>594181.50917229906</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="FT287">
-            <v>2663413.8733897191</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
-      <sheetData sheetId="24">
-        <row r="87">
-          <cell r="GH87">
-            <v>11936.43721</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
@@ -645,6 +560,320 @@
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+      <sheetData sheetId="85"/>
+      <sheetData sheetId="86"/>
+      <sheetData sheetId="87"/>
+      <sheetData sheetId="88"/>
+      <sheetData sheetId="89"/>
+      <sheetData sheetId="90"/>
+      <sheetData sheetId="91"/>
+      <sheetData sheetId="92"/>
+      <sheetData sheetId="93"/>
+      <sheetData sheetId="94"/>
+      <sheetData sheetId="95"/>
+      <sheetData sheetId="96"/>
+      <sheetData sheetId="97"/>
+      <sheetData sheetId="98"/>
+      <sheetData sheetId="99"/>
+      <sheetData sheetId="100"/>
+      <sheetData sheetId="101"/>
+      <sheetData sheetId="102"/>
+      <sheetData sheetId="103"/>
+      <sheetData sheetId="104"/>
+      <sheetData sheetId="105"/>
+      <sheetData sheetId="106"/>
+      <sheetData sheetId="107"/>
+      <sheetData sheetId="108"/>
+      <sheetData sheetId="109"/>
+      <sheetData sheetId="110"/>
+      <sheetData sheetId="111"/>
+      <sheetData sheetId="112"/>
+      <sheetData sheetId="113"/>
+      <sheetData sheetId="114"/>
+      <sheetData sheetId="115"/>
+      <sheetData sheetId="116"/>
+      <sheetData sheetId="117"/>
+      <sheetData sheetId="118"/>
+      <sheetData sheetId="119"/>
+      <sheetData sheetId="120"/>
+      <sheetData sheetId="121"/>
+      <sheetData sheetId="122"/>
+      <sheetData sheetId="123"/>
+      <sheetData sheetId="124"/>
+      <sheetData sheetId="125"/>
+      <sheetData sheetId="126"/>
+      <sheetData sheetId="127"/>
+      <sheetData sheetId="128"/>
+      <sheetData sheetId="129"/>
+      <sheetData sheetId="130"/>
+      <sheetData sheetId="131"/>
+      <sheetData sheetId="132"/>
+      <sheetData sheetId="133"/>
+      <sheetData sheetId="134"/>
+      <sheetData sheetId="135"/>
+      <sheetData sheetId="136"/>
+      <sheetData sheetId="137"/>
+      <sheetData sheetId="138"/>
+      <sheetData sheetId="139"/>
+      <sheetData sheetId="140">
+        <row r="4">
+          <cell r="K4">
+            <v>2089</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>1102</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>1797</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="K12">
+            <v>1658</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="K13">
+            <v>11020.82</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="K14">
+            <v>7521</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="K16">
+            <v>7521</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="K21">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="K22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="K23">
+            <v>277</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>520650</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="K43">
+            <v>58457013.94966846</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="K45">
+            <v>640609.24896782986</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="K46">
+            <v>569765.49693415337</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="K50">
+            <v>1710465.3282108828</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="K51">
+            <v>1651985.7657788899</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="K52">
+            <v>11403436.988675777</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="K53">
+            <v>9509456.2925266344</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="K54">
+            <v>1242981.2793500409</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="K55">
+            <v>772290.8756229775</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="K56">
+            <v>7960287.879312071</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="K58">
+            <v>483447</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="K60">
+            <v>7402492.6521433452</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="K61">
+            <v>2452674.7912655664</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="K63">
+            <v>3030322.7141908901</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="K64">
+            <v>2416512.8490000004</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="K65">
+            <v>322133.56850330083</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="K66">
+            <v>204939.97032548493</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="K67">
+            <v>284647.52704301075</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="K68">
+            <v>309078.59000000003</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="K69">
+            <v>3629887.1318176026</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="K71">
+            <v>2459598</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="141"/>
+      <sheetData sheetId="142"/>
+      <sheetData sheetId="143"/>
+      <sheetData sheetId="144"/>
+      <sheetData sheetId="145"/>
+      <sheetData sheetId="146"/>
+      <sheetData sheetId="147"/>
+      <sheetData sheetId="148"/>
+      <sheetData sheetId="149"/>
+      <sheetData sheetId="150"/>
+      <sheetData sheetId="151"/>
+      <sheetData sheetId="152"/>
+      <sheetData sheetId="153"/>
+      <sheetData sheetId="154"/>
+      <sheetData sheetId="155"/>
+      <sheetData sheetId="156"/>
+      <sheetData sheetId="157"/>
+      <sheetData sheetId="158"/>
+      <sheetData sheetId="159"/>
+      <sheetData sheetId="160"/>
+      <sheetData sheetId="161"/>
+      <sheetData sheetId="162"/>
+      <sheetData sheetId="163"/>
+      <sheetData sheetId="164"/>
+      <sheetData sheetId="165"/>
+      <sheetData sheetId="166"/>
+      <sheetData sheetId="167"/>
+      <sheetData sheetId="168"/>
+      <sheetData sheetId="169"/>
+      <sheetData sheetId="170"/>
+      <sheetData sheetId="171"/>
+      <sheetData sheetId="172"/>
+      <sheetData sheetId="173"/>
+      <sheetData sheetId="174"/>
+      <sheetData sheetId="175"/>
+      <sheetData sheetId="176"/>
+      <sheetData sheetId="177"/>
+      <sheetData sheetId="178"/>
+      <sheetData sheetId="179"/>
+      <sheetData sheetId="180"/>
+      <sheetData sheetId="181"/>
+      <sheetData sheetId="182"/>
+      <sheetData sheetId="183"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -984,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -1016,8 +1245,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <f>'[1]Etap 2 Kody I'!FS62</f>
-        <v>7030.9684526646824</v>
+        <f>[1]R4R!K43/[1]R4R!K16</f>
+        <v>7772.5055111911261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1025,8 +1254,8 @@
         <v>9</v>
       </c>
       <c r="B6" s="6">
-        <f>'[1]Etap 2 Kody I'!FR10</f>
-        <v>5836.57</v>
+        <f>[1]R4R!K4</f>
+        <v>2089</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,8 +1263,8 @@
         <v>54</v>
       </c>
       <c r="B7" s="6">
-        <f>'[1]Etap 2 Kody I'!FR14</f>
-        <v>1896</v>
+        <f>[1]R4R!K5</f>
+        <v>1102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,8 +1272,8 @@
         <v>55</v>
       </c>
       <c r="B8" s="6">
-        <f>'[1]Etap 2 Kody I'!FR12</f>
-        <v>3587</v>
+        <f>[1]R4R!K6</f>
+        <v>1797</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1281,6 @@
         <v>47</v>
       </c>
       <c r="B9" s="6">
-        <f>'[1]Etap 2 Kody I'!FR13</f>
         <v>0</v>
       </c>
     </row>
@@ -1061,8 +1289,8 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <f>'[1]Etap 2 Kody I'!FR10-'[1]Etap 2 Kody I'!FR14</f>
-        <v>3940.5699999999997</v>
+        <f>B6-B7</f>
+        <v>987</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,8 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <f>'[1]Etap 2 Kody I'!FR16+'[1]Etap 2 Kody I'!FR17+'[1]Etap 2 Kody I'!FR20</f>
-        <v>3917</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,8 +1306,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <f>'[1]Etap 2 Szczegóły'!GH87</f>
-        <v>11936.43721</v>
+        <v>8222.7646000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1315,7 @@
       </c>
       <c r="B13" s="6">
         <f>B14+B15</f>
-        <v>17612.550000000003</v>
+        <v>12678.82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,8 +1323,8 @@
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <f>'[1]Etap 2 Kody I'!FR22</f>
-        <v>3393</v>
+        <f>[1]R4R!K12</f>
+        <v>1658</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,8 +1332,8 @@
         <v>15</v>
       </c>
       <c r="B15" s="6">
-        <f>'[1]Etap 2 Kody I'!FR23</f>
-        <v>14219.550000000001</v>
+        <f>[1]R4R!K13</f>
+        <v>11020.82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1342,7 @@
       </c>
       <c r="B16" s="6">
         <f>B17+B18</f>
-        <v>10864.550000000001</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,8 +1350,8 @@
         <v>17</v>
       </c>
       <c r="B17" s="6">
-        <f>'[1]Etap 2 Kody I'!FR31</f>
-        <v>10446.150000000001</v>
+        <f>[1]R4R!K14</f>
+        <v>7521</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,8 +1359,8 @@
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <f>'[1]Etap 2 Kody I'!FR30</f>
-        <v>418.4</v>
+        <f>[1]R4R!K15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,8 +1368,8 @@
         <v>19</v>
       </c>
       <c r="B19" s="6">
-        <f>'[1]Etap 2 Kody I'!FR35</f>
-        <v>3355</v>
+        <f>B15-B17-B18</f>
+        <v>3499.8199999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,8 +1377,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="6">
-        <f>'[1]Etap 2 Kody I'!FR26</f>
-        <v>0</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,8 +1385,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="6">
-        <f>'[1]Etap 2 Kody I'!FR40</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1169,8 +1393,7 @@
         <v>58</v>
       </c>
       <c r="B22" s="6">
-        <f>'[1]Etap 2 Kody I'!FR39</f>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,8 +1401,8 @@
         <v>48</v>
       </c>
       <c r="B23" s="6">
-        <f>'[1]Etap 2 Kody I'!FR45</f>
-        <v>110</v>
+        <f>[1]R4R!K21</f>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1410,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="6">
-        <f>'[1]Etap 2 Kody I'!FR47</f>
+        <f>[1]R4R!K22</f>
         <v>0</v>
       </c>
     </row>
@@ -1196,8 +1419,8 @@
         <v>22</v>
       </c>
       <c r="B25" s="6">
-        <f>'[1]Etap 2 Kody I'!FR41</f>
-        <v>339</v>
+        <f>[1]R4R!K23</f>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1429,7 @@
       </c>
       <c r="B26" s="6">
         <f>B17/B25</f>
-        <v>30.814601769911508</v>
+        <v>27.151624548736461</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1438,7 @@
       </c>
       <c r="B27" s="6">
         <f>B19/B15</f>
-        <v>0.23594276893431929</v>
+        <v>0.3175643917603227</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +1447,7 @@
       </c>
       <c r="B28" s="6">
         <f>B14/B16</f>
-        <v>0.31230009526395475</v>
+        <v>0.22044940832336127</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,8 +1455,8 @@
         <v>26</v>
       </c>
       <c r="B29" s="6">
-        <f>'[1]Etap 2 Kody I'!FT51</f>
-        <v>552337.33171546552</v>
+        <f>[1]R4R!K32</f>
+        <v>520650</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,8 +1464,8 @@
         <v>27</v>
       </c>
       <c r="B30" s="6">
-        <f>'[1]Etap 2 Kody I'!FT62</f>
-        <v>76388308.302398086</v>
+        <f>[1]R4R!K43</f>
+        <v>58457013.94966846</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,8 +1473,8 @@
         <v>28</v>
       </c>
       <c r="B31" s="6">
-        <f>'[1]Etap 2 Kody I'!FT63-B32</f>
-        <v>1250405.3900000001</v>
+        <f>[1]R4R!K45</f>
+        <v>640609.24896782986</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,8 +1482,8 @@
         <v>49</v>
       </c>
       <c r="B32" s="6">
-        <f>'[1]Etap 2 Kody I'!FT67</f>
-        <v>997919.99999999988</v>
+        <f>[1]R4R!K46</f>
+        <v>569765.49693415337</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="6">
-        <f>'[1]Etap 2 Kody I'!FT75</f>
+        <f>[1]R4R!K48</f>
         <v>0</v>
       </c>
     </row>
@@ -1277,7 +1500,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="6">
-        <f>'[1]Etap 2 Kody I'!FT73</f>
+        <f>[1]R4R!K49</f>
         <v>0</v>
       </c>
     </row>
@@ -1286,8 +1509,8 @@
         <v>52</v>
       </c>
       <c r="B35" s="6">
-        <f>'[1]Etap 2 Kody I'!FT71+'[1]Etap 2 Kody I'!FT72</f>
-        <v>3982283.8804000001</v>
+        <f>[1]R4R!K50</f>
+        <v>1710465.3282108828</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,8 +1518,8 @@
         <v>29</v>
       </c>
       <c r="B36" s="6">
-        <f>'[1]Etap 2 Kody I'!FT70</f>
-        <v>3393000</v>
+        <f>[1]R4R!K51</f>
+        <v>1651985.7657788899</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,8 +1527,8 @@
         <v>30</v>
       </c>
       <c r="B37" s="6">
-        <f>'[1]Etap 2 Kody I'!FT77</f>
-        <v>15352729.390000002</v>
+        <f>[1]R4R!K52</f>
+        <v>11403436.988675777</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1313,8 +1536,8 @@
         <v>31</v>
       </c>
       <c r="B38" s="6">
-        <f>'[1]Etap 2 Kody I'!FT83</f>
-        <v>8613910.9945999999</v>
+        <f>[1]R4R!K53</f>
+        <v>9509456.2925266344</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,8 +1545,8 @@
         <v>32</v>
       </c>
       <c r="B39" s="6">
-        <f>'[1]Etap 2 Kody I'!FT104</f>
-        <v>1786356.6</v>
+        <f>[1]R4R!K54</f>
+        <v>1242981.2793500409</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,8 +1554,8 @@
         <v>34</v>
       </c>
       <c r="B40" s="6">
-        <f>'[1]Etap 2 Kody I'!FT113</f>
-        <v>1357200</v>
+        <f>[1]R4R!K55</f>
+        <v>772290.8756229775</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,8 +1563,8 @@
         <v>33</v>
       </c>
       <c r="B41" s="6">
-        <f>'[1]Etap 2 Kody I'!FT122</f>
-        <v>10074709.354999997</v>
+        <f>[1]R4R!K56</f>
+        <v>7960287.879312071</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,8 +1572,8 @@
         <v>35</v>
       </c>
       <c r="B42" s="6">
-        <f>'[1]Etap 2 Kody I'!FT152-B43</f>
-        <v>1175000</v>
+        <f>[1]R4R!K58</f>
+        <v>483447</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,7 +1581,7 @@
         <v>53</v>
       </c>
       <c r="B43" s="6">
-        <f>'[1]Etap 2 Kody I'!FT156</f>
+        <f>[1]R4R!K59</f>
         <v>0</v>
       </c>
     </row>
@@ -1367,8 +1590,8 @@
         <v>36</v>
       </c>
       <c r="B44" s="6">
-        <f>'[1]Etap 2 Kody I'!FT157</f>
-        <v>8142338.2599999998</v>
+        <f>[1]R4R!K60</f>
+        <v>7402492.6521433452</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,8 +1599,8 @@
         <v>37</v>
       </c>
       <c r="B45" s="6">
-        <f>'[1]Etap 2 Kody I'!FT170</f>
-        <v>3089198</v>
+        <f>[1]R4R!K61</f>
+        <v>2452674.7912655664</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,7 +1608,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="6">
-        <f>'[1]Etap 2 Kody I'!FT182</f>
+        <f>[1]R4R!K62</f>
         <v>0</v>
       </c>
     </row>
@@ -1394,8 +1617,8 @@
         <v>39</v>
       </c>
       <c r="B47" s="6">
-        <f>'[1]Etap 2 Kody I'!FT189</f>
-        <v>4663632.8281032117</v>
+        <f>[1]R4R!K63</f>
+        <v>3030322.7141908901</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1403,8 +1626,8 @@
         <v>40</v>
       </c>
       <c r="B48" s="6">
-        <f>'[1]Etap 2 Kody I'!FT199</f>
-        <v>2313666.3263797443</v>
+        <f>[1]R4R!K64</f>
+        <v>2416512.8490000004</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,8 +1635,8 @@
         <v>41</v>
       </c>
       <c r="B49" s="6">
-        <f>'[1]Etap 2 Kody I'!FT229+'[1]Etap 2 Kody I'!FT268</f>
-        <v>1203190</v>
+        <f>[1]R4R!K65</f>
+        <v>322133.56850330083</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,8 +1644,8 @@
         <v>42</v>
       </c>
       <c r="B50" s="6">
-        <f>'[1]Etap 2 Kody I'!FT238</f>
-        <v>115348.54999999999</v>
+        <f>[1]R4R!K66</f>
+        <v>204939.97032548493</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,8 +1653,8 @@
         <v>56</v>
       </c>
       <c r="B51" s="6">
-        <f>'[1]Etap 2 Kody I'!FT247</f>
-        <v>237052.59999999995</v>
+        <f>[1]R4R!K67</f>
+        <v>284647.52704301075</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,8 +1662,8 @@
         <v>43</v>
       </c>
       <c r="B52" s="6">
-        <f>'[1]Etap 2 Kody I'!FT255</f>
-        <v>2136182.7949694078</v>
+        <f>[1]R4R!K68</f>
+        <v>309078.59000000003</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,8 +1671,8 @@
         <v>44</v>
       </c>
       <c r="B53" s="6">
-        <f>'[1]Etap 2 Kody I'!FT273</f>
-        <v>3246587.9503836958</v>
+        <f>[1]R4R!K69</f>
+        <v>3629887.1318176026</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1457,8 +1680,8 @@
         <v>45</v>
       </c>
       <c r="B54" s="6">
-        <f>'[1]Etap 2 Kody I'!FT285</f>
-        <v>594181.50917229906</v>
+        <f>[1]R4R!K70</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,13 +1689,13 @@
         <v>46</v>
       </c>
       <c r="B55" s="6">
-        <f>'[1]Etap 2 Kody I'!FT287</f>
-        <v>2663413.8733897191</v>
+        <f>[1]R4R!K71</f>
+        <v>2459598</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8B5C678A-8488-447A-A37D-30BACDAEEEE8}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D7124F43-2660-46BC-97D4-DF432B44CBED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
